--- a/data/phase2/Roster of phase 2 stages (descriptive survey take 1)_v2.xlsx
+++ b/data/phase2/Roster of phase 2 stages (descriptive survey take 1)_v2.xlsx
@@ -2819,7 +2819,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2967,6 +2967,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -11205,8 +11208,8 @@
       <c r="P3" s="68">
         <v>40.2745501</v>
       </c>
-      <c r="Q3" s="68">
-        <v>4000.0</v>
+      <c r="Q3" s="72">
+        <v>5000.0</v>
       </c>
       <c r="R3" s="66"/>
     </row>
@@ -11586,7 +11589,7 @@
       <c r="C11" s="63">
         <v>17.0</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="62" t="s">
@@ -11610,7 +11613,7 @@
       <c r="K11" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="73" t="s">
         <v>468</v>
       </c>
       <c r="M11" s="66"/>
@@ -11636,7 +11639,7 @@
       <c r="C12" s="63">
         <v>17.0</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -11660,7 +11663,7 @@
       <c r="K12" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="73" t="s">
         <v>468</v>
       </c>
       <c r="M12" s="66"/>
@@ -11686,7 +11689,7 @@
       <c r="C13" s="68">
         <v>17.0</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="74" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="67" t="s">
@@ -11710,7 +11713,7 @@
       <c r="K13" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="L13" s="73" t="s">
+      <c r="L13" s="74" t="s">
         <v>468</v>
       </c>
       <c r="M13" s="71"/>
@@ -12095,7 +12098,7 @@
       <c r="F21" s="62" t="s">
         <v>488</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="75" t="s">
         <v>489</v>
       </c>
       <c r="H21" s="62" t="s">
@@ -12104,10 +12107,10 @@
       <c r="I21" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="76" t="s">
         <v>490</v>
       </c>
-      <c r="K21" s="76" t="s">
+      <c r="K21" s="77" t="s">
         <v>490</v>
       </c>
       <c r="L21" s="62" t="s">
@@ -12695,8 +12698,8 @@
       <c r="P32" s="68">
         <v>21.2486974</v>
       </c>
-      <c r="Q32" s="68">
-        <v>2500.0</v>
+      <c r="Q32" s="72">
+        <v>3000.0</v>
       </c>
       <c r="R32" s="66"/>
     </row>
@@ -12710,7 +12713,7 @@
       <c r="C33" s="63">
         <v>35.0</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="78" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="62" t="s">
@@ -12719,19 +12722,19 @@
       <c r="F33" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="G33" s="74" t="s">
+      <c r="G33" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="I33" s="74" t="s">
+      <c r="I33" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="J33" s="78" t="s">
+      <c r="J33" s="79" t="s">
         <v>497</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="80" t="s">
         <v>497</v>
       </c>
       <c r="L33" s="62" t="s">
@@ -12760,7 +12763,7 @@
       <c r="C34" s="63">
         <v>35.0</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="78" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="62" t="s">
@@ -12778,10 +12781,10 @@
       <c r="I34" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="J34" s="80" t="s">
+      <c r="J34" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="K34" s="81" t="s">
+      <c r="K34" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L34" s="62" t="s">
@@ -12810,7 +12813,7 @@
       <c r="C35" s="63">
         <v>35.0</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="78" t="s">
         <v>140</v>
       </c>
       <c r="E35" s="62" t="s">
@@ -12822,16 +12825,16 @@
       <c r="G35" s="62" t="s">
         <v>535</v>
       </c>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="J35" s="82" t="s">
+      <c r="J35" s="83" t="s">
         <v>497</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="82" t="s">
         <v>497</v>
       </c>
       <c r="L35" s="62" t="s">
@@ -12860,7 +12863,7 @@
       <c r="C36" s="68">
         <v>35.0</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="84" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="67" t="s">
@@ -12869,19 +12872,19 @@
       <c r="F36" s="67" t="s">
         <v>536</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="85" t="s">
         <v>537</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="I36" s="84" t="s">
+      <c r="I36" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="J36" s="85" t="s">
+      <c r="J36" s="86" t="s">
         <v>497</v>
       </c>
-      <c r="K36" s="86" t="s">
+      <c r="K36" s="87" t="s">
         <v>497</v>
       </c>
       <c r="L36" s="67" t="s">
@@ -12919,19 +12922,19 @@
       <c r="F37" s="62" t="s">
         <v>538</v>
       </c>
-      <c r="G37" s="74" t="s">
+      <c r="G37" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="H37" s="74" t="s">
+      <c r="H37" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="74" t="s">
+      <c r="I37" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="J37" s="75" t="s">
+      <c r="J37" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="80" t="s">
         <v>497</v>
       </c>
       <c r="L37" s="62" t="s">
@@ -12981,7 +12984,7 @@
       <c r="J38" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="K38" s="81" t="s">
+      <c r="K38" s="82" t="s">
         <v>543</v>
       </c>
       <c r="L38" s="62" t="s">
@@ -13031,7 +13034,7 @@
       <c r="J39" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="82" t="s">
         <v>543</v>
       </c>
       <c r="L39" s="62" t="s">
@@ -13081,7 +13084,7 @@
       <c r="J40" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="K40" s="87" t="s">
+      <c r="K40" s="88" t="s">
         <v>543</v>
       </c>
       <c r="L40" s="67" t="s">
@@ -13110,7 +13113,7 @@
       <c r="C41" s="63">
         <v>55.0</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="89" t="s">
         <v>548</v>
       </c>
       <c r="E41" s="62" t="s">
@@ -13119,19 +13122,19 @@
       <c r="F41" s="62" t="s">
         <v>549</v>
       </c>
-      <c r="G41" s="74" t="s">
+      <c r="G41" s="75" t="s">
         <v>550</v>
       </c>
-      <c r="H41" s="74" t="s">
+      <c r="H41" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="I41" s="74" t="s">
+      <c r="I41" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="J41" s="89" t="s">
+      <c r="J41" s="90" t="s">
         <v>552</v>
       </c>
-      <c r="K41" s="79" t="s">
+      <c r="K41" s="80" t="s">
         <v>497</v>
       </c>
       <c r="L41" s="62" t="s">
@@ -13160,7 +13163,7 @@
       <c r="C42" s="63">
         <v>55.0</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="89" t="s">
         <v>548</v>
       </c>
       <c r="E42" s="62" t="s">
@@ -13169,7 +13172,7 @@
       <c r="F42" s="62" t="s">
         <v>553</v>
       </c>
-      <c r="G42" s="90" t="s">
+      <c r="G42" s="91" t="s">
         <v>554</v>
       </c>
       <c r="H42" s="62" t="s">
@@ -13178,10 +13181,10 @@
       <c r="I42" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="J42" s="91" t="s">
+      <c r="J42" s="92" t="s">
         <v>555</v>
       </c>
-      <c r="K42" s="81" t="s">
+      <c r="K42" s="82" t="s">
         <v>555</v>
       </c>
       <c r="L42" s="62" t="s">
@@ -13214,7 +13217,7 @@
       <c r="C43" s="63">
         <v>55.0</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="89" t="s">
         <v>548</v>
       </c>
       <c r="E43" s="62" t="s">
@@ -13223,7 +13226,7 @@
       <c r="F43" s="62" t="s">
         <v>559</v>
       </c>
-      <c r="G43" s="92" t="s">
+      <c r="G43" s="93" t="s">
         <v>440</v>
       </c>
       <c r="H43" s="62" t="s">
@@ -13232,10 +13235,10 @@
       <c r="I43" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="J43" s="93" t="s">
+      <c r="J43" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="K43" s="81" t="s">
+      <c r="K43" s="82" t="s">
         <v>560</v>
       </c>
       <c r="L43" s="62" t="s">
@@ -13268,7 +13271,7 @@
       <c r="C44" s="63">
         <v>55.0</v>
       </c>
-      <c r="D44" s="88" t="s">
+      <c r="D44" s="89" t="s">
         <v>548</v>
       </c>
       <c r="E44" s="62" t="s">
@@ -13277,7 +13280,7 @@
       <c r="F44" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="G44" s="90" t="s">
+      <c r="G44" s="91" t="s">
         <v>565</v>
       </c>
       <c r="H44" s="62" t="s">
@@ -13286,10 +13289,10 @@
       <c r="I44" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="J44" s="91" t="s">
+      <c r="J44" s="92" t="s">
         <v>555</v>
       </c>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="82" t="s">
         <v>555</v>
       </c>
       <c r="L44" s="62" t="s">
@@ -13322,7 +13325,7 @@
       <c r="C45" s="63">
         <v>55.0</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="89" t="s">
         <v>548</v>
       </c>
       <c r="E45" s="62" t="s">
@@ -13340,10 +13343,10 @@
       <c r="I45" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="J45" s="94" t="s">
+      <c r="J45" s="95" t="s">
         <v>555</v>
       </c>
-      <c r="K45" s="81" t="s">
+      <c r="K45" s="82" t="s">
         <v>555</v>
       </c>
       <c r="L45" s="62" t="s">
@@ -13374,7 +13377,7 @@
       <c r="C46" s="68">
         <v>55.0</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="96" t="s">
         <v>548</v>
       </c>
       <c r="E46" s="67" t="s">
@@ -13383,7 +13386,7 @@
       <c r="F46" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="G46" s="96" t="s">
+      <c r="G46" s="97" t="s">
         <v>450</v>
       </c>
       <c r="H46" s="67" t="s">
@@ -13392,10 +13395,10 @@
       <c r="I46" s="67" t="s">
         <v>551</v>
       </c>
-      <c r="J46" s="97" t="s">
+      <c r="J46" s="98" t="s">
         <v>442</v>
       </c>
-      <c r="K46" s="87" t="s">
+      <c r="K46" s="88" t="s">
         <v>560</v>
       </c>
       <c r="L46" s="67" t="s">
@@ -13419,109 +13422,109 @@
       <c r="R46" s="66"/>
     </row>
     <row r="47">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="99">
+      <c r="C47" s="100">
         <v>95.0</v>
       </c>
-      <c r="D47" s="98" t="s">
+      <c r="D47" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="98" t="s">
+      <c r="E47" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="F47" s="98" t="s">
+      <c r="F47" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="G47" s="98" t="s">
+      <c r="G47" s="99" t="s">
         <v>573</v>
       </c>
-      <c r="H47" s="98" t="s">
+      <c r="H47" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="I47" s="98" t="s">
+      <c r="I47" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="J47" s="100" t="s">
+      <c r="J47" s="101" t="s">
         <v>433</v>
       </c>
-      <c r="K47" s="101" t="s">
+      <c r="K47" s="102" t="s">
         <v>442</v>
       </c>
-      <c r="L47" s="98" t="s">
+      <c r="L47" s="99" t="s">
         <v>443</v>
       </c>
-      <c r="M47" s="98" t="s">
+      <c r="M47" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="N47" s="98" t="s">
+      <c r="N47" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="O47" s="98" t="s">
+      <c r="O47" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="P47" s="99">
+      <c r="P47" s="100">
         <v>6.08292251</v>
       </c>
-      <c r="Q47" s="99">
+      <c r="Q47" s="100">
         <v>2000.0</v>
       </c>
       <c r="R47" s="66"/>
     </row>
     <row r="48">
-      <c r="A48" s="98" t="s">
+      <c r="A48" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="99">
+      <c r="C48" s="100">
         <v>95.0</v>
       </c>
-      <c r="D48" s="98" t="s">
+      <c r="D48" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F48" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="G48" s="98" t="s">
+      <c r="G48" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="H48" s="98" t="s">
+      <c r="H48" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="I48" s="98" t="s">
+      <c r="I48" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="J48" s="100" t="s">
+      <c r="J48" s="101" t="s">
         <v>433</v>
       </c>
-      <c r="K48" s="101" t="s">
+      <c r="K48" s="102" t="s">
         <v>442</v>
       </c>
-      <c r="L48" s="98" t="s">
+      <c r="L48" s="99" t="s">
         <v>443</v>
       </c>
-      <c r="M48" s="98" t="s">
+      <c r="M48" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="N48" s="98" t="s">
+      <c r="N48" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="O48" s="98" t="s">
+      <c r="O48" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="P48" s="99">
+      <c r="P48" s="100">
         <v>6.08292251</v>
       </c>
-      <c r="Q48" s="99">
+      <c r="Q48" s="100">
         <v>2000.0</v>
       </c>
       <c r="R48" s="66"/>
@@ -13542,10 +13545,10 @@
       <c r="E49" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="F49" s="102" t="s">
+      <c r="F49" s="103" t="s">
         <v>575</v>
       </c>
-      <c r="G49" s="102" t="s">
+      <c r="G49" s="103" t="s">
         <v>576</v>
       </c>
       <c r="H49" s="71"/>
@@ -13553,7 +13556,7 @@
       <c r="J49" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="K49" s="87" t="s">
+      <c r="K49" s="88" t="s">
         <v>442</v>
       </c>
       <c r="L49" s="67" t="s">
@@ -13603,7 +13606,7 @@
       <c r="J50" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="K50" s="87" t="s">
+      <c r="K50" s="88" t="s">
         <v>442</v>
       </c>
       <c r="L50" s="67" t="s">
@@ -13653,7 +13656,7 @@
       <c r="J51" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="K51" s="81" t="s">
+      <c r="K51" s="82" t="s">
         <v>555</v>
       </c>
       <c r="L51" s="62" t="s">
@@ -13703,7 +13706,7 @@
       <c r="J52" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="K52" s="81" t="s">
+      <c r="K52" s="82" t="s">
         <v>555</v>
       </c>
       <c r="L52" s="62" t="s">
@@ -13753,7 +13756,7 @@
       <c r="J53" s="69" t="s">
         <v>555</v>
       </c>
-      <c r="K53" s="87" t="s">
+      <c r="K53" s="88" t="s">
         <v>555</v>
       </c>
       <c r="L53" s="67" t="s">
@@ -13955,7 +13958,7 @@
       <c r="J57" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K57" s="81" t="s">
+      <c r="K57" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L57" s="62" t="s">
@@ -14005,7 +14008,7 @@
       <c r="J58" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="K58" s="87" t="s">
+      <c r="K58" s="88" t="s">
         <v>442</v>
       </c>
       <c r="L58" s="67" t="s">
@@ -14055,7 +14058,7 @@
       <c r="J59" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="88" t="s">
         <v>442</v>
       </c>
       <c r="L59" s="67" t="s">
@@ -14255,7 +14258,7 @@
       <c r="J63" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K63" s="81" t="s">
+      <c r="K63" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L63" s="62" t="s">
@@ -14307,7 +14310,7 @@
       <c r="J64" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K64" s="81" t="s">
+      <c r="K64" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L64" s="62" t="s">
@@ -14361,7 +14364,7 @@
       <c r="J65" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K65" s="81" t="s">
+      <c r="K65" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L65" s="62" t="s">
@@ -14413,7 +14416,7 @@
       <c r="J66" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="K66" s="87" t="s">
+      <c r="K66" s="88" t="s">
         <v>442</v>
       </c>
       <c r="L66" s="67" t="s">
@@ -14467,7 +14470,7 @@
       <c r="J67" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K67" s="81" t="s">
+      <c r="K67" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L67" s="62" t="s">
@@ -14517,7 +14520,7 @@
       <c r="J68" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K68" s="81" t="s">
+      <c r="K68" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L68" s="62" t="s">
@@ -14569,7 +14572,7 @@
       <c r="J69" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="K69" s="81" t="s">
+      <c r="K69" s="82" t="s">
         <v>442</v>
       </c>
       <c r="L69" s="62" t="s">
@@ -32817,4204 +32820,4204 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="104" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="104" t="s">
         <v>627</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="104" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="106" t="s">
+      <c r="P1" s="107" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="104">
         <v>12.0</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="104" t="s">
         <v>431</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L2" s="103">
+      <c r="L2" s="104">
         <v>1.0</v>
       </c>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="109">
+      <c r="N2" s="110">
         <v>40.2745501</v>
       </c>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="103">
+      <c r="P2" s="104">
         <v>5000.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="104">
         <v>12.0</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="104" t="s">
         <v>436</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="104" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="104">
         <v>1.0</v>
       </c>
-      <c r="M3" s="103" t="s">
+      <c r="M3" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="109">
+      <c r="N3" s="110">
         <v>40.2745501</v>
       </c>
-      <c r="O3" s="103" t="s">
+      <c r="O3" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="103">
+      <c r="P3" s="104">
         <v>4000.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="104">
         <v>13.0</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="104" t="s">
         <v>439</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="104" t="s">
         <v>440</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="108" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="104">
         <v>0.0</v>
       </c>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="110">
         <v>10.049094</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P4" s="103">
+      <c r="P4" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="104">
         <v>13.0</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="104" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="104" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="108" t="s">
         <v>441</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="104">
         <v>1.0</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="109">
+      <c r="N5" s="110">
         <v>10.049094</v>
       </c>
-      <c r="O5" s="103">
+      <c r="O5" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P5" s="103">
+      <c r="P5" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="104">
         <v>13.0</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="104" t="s">
         <v>449</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="104" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="108" t="s">
         <v>441</v>
       </c>
-      <c r="K6" s="108" t="s">
+      <c r="K6" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="104">
         <v>0.0</v>
       </c>
-      <c r="M6" s="103" t="s">
+      <c r="M6" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="110">
         <v>10.049094</v>
       </c>
-      <c r="O6" s="103">
+      <c r="O6" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P6" s="103">
+      <c r="P6" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="104">
         <v>13.0</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="104" t="s">
         <v>451</v>
       </c>
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="104" t="s">
         <v>452</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H7" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="108" t="s">
         <v>441</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="104">
         <v>1.0</v>
       </c>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N7" s="110">
         <v>10.049094</v>
       </c>
-      <c r="O7" s="103">
+      <c r="O7" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P7" s="103">
+      <c r="P7" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="104">
         <v>14.0</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="104" t="s">
         <v>455</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="104">
         <v>1.0</v>
       </c>
-      <c r="M8" s="103" t="s">
+      <c r="M8" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="109">
+      <c r="N8" s="110">
         <v>8.82092796</v>
       </c>
-      <c r="O8" s="103" t="s">
+      <c r="O8" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="103">
+      <c r="P8" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="104">
         <v>14.0</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="104" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="104" t="s">
         <v>461</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="K9" s="108" t="s">
+      <c r="K9" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="104">
         <v>1.0</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="109">
+      <c r="N9" s="110">
         <v>8.82092796</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="O9" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="P9" s="103">
+      <c r="P9" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="103">
+      <c r="C10" s="104">
         <v>15.0</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="104" t="s">
         <v>464</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L10" s="103">
+      <c r="L10" s="104">
         <v>1.0</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="N10" s="109">
+      <c r="N10" s="110">
         <v>12.0733898</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P10" s="103">
+      <c r="P10" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="104">
         <v>17.0</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="104" t="s">
         <v>466</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" s="104" t="s">
         <v>467</v>
       </c>
-      <c r="H11" s="103" t="s">
+      <c r="H11" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="104">
         <v>1.0</v>
       </c>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="N11" s="109">
+      <c r="N11" s="110">
         <v>23.0839328</v>
       </c>
-      <c r="O11" s="103">
+      <c r="O11" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P11" s="103">
+      <c r="P11" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="104">
         <v>17.0</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="104" t="s">
         <v>469</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="107" t="s">
+      <c r="J12" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="104">
         <v>1.0</v>
       </c>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="110">
         <v>23.0839328</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P12" s="103">
+      <c r="P12" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="104">
         <v>17.0</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="104" t="s">
         <v>471</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="J13" s="107" t="s">
+      <c r="J13" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L13" s="103">
+      <c r="L13" s="104">
         <v>1.0</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="N13" s="109">
+      <c r="N13" s="110">
         <v>23.0839328</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="104">
         <v>3000.0</v>
       </c>
-      <c r="P13" s="103">
+      <c r="P13" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="104">
         <v>18.0</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="104" t="s">
         <v>473</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="104" t="s">
         <v>474</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L14" s="103">
+      <c r="L14" s="104">
         <v>1.0</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="N14" s="109">
+      <c r="N14" s="110">
         <v>55.0175743</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="104">
         <v>4000.0</v>
       </c>
-      <c r="P14" s="103">
+      <c r="P14" s="104">
         <v>4000.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="104">
         <v>19.0</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I15" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K15" s="108" t="s">
+      <c r="K15" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L15" s="103">
+      <c r="L15" s="104">
         <v>1.0</v>
       </c>
-      <c r="M15" s="103" t="s">
+      <c r="M15" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="N15" s="109">
+      <c r="N15" s="110">
         <v>18.229571</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P15" s="103">
+      <c r="P15" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="104">
         <v>19.0</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="J16" s="107" t="s">
+      <c r="J16" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K16" s="108" t="s">
+      <c r="K16" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L16" s="103">
+      <c r="L16" s="104">
         <v>0.0</v>
       </c>
-      <c r="M16" s="103" t="s">
+      <c r="M16" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="N16" s="109">
+      <c r="N16" s="110">
         <v>18.229571</v>
       </c>
-      <c r="O16" s="103">
+      <c r="O16" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P16" s="103">
+      <c r="P16" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C17" s="104">
         <v>19.0</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="104" t="s">
         <v>480</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="J17" s="107" t="s">
+      <c r="J17" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K17" s="108" t="s">
+      <c r="K17" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L17" s="103">
+      <c r="L17" s="104">
         <v>0.0</v>
       </c>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="N17" s="109">
+      <c r="N17" s="110">
         <v>18.229571</v>
       </c>
-      <c r="O17" s="103">
+      <c r="O17" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P17" s="103">
+      <c r="P17" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="104">
         <v>19.0</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="104" t="s">
         <v>482</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="104" t="s">
         <v>483</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="J18" s="107" t="s">
+      <c r="J18" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K18" s="108" t="s">
+      <c r="K18" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L18" s="103">
+      <c r="L18" s="104">
         <v>0.0</v>
       </c>
-      <c r="M18" s="103" t="s">
+      <c r="M18" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="N18" s="109">
+      <c r="N18" s="110">
         <v>18.229571</v>
       </c>
-      <c r="O18" s="103">
+      <c r="O18" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P18" s="103">
+      <c r="P18" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C19" s="104">
         <v>19.0</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="104" t="s">
         <v>485</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="103" t="s">
+      <c r="I19" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K19" s="108" t="s">
+      <c r="K19" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L19" s="103">
+      <c r="L19" s="104">
         <v>0.0</v>
       </c>
-      <c r="M19" s="103" t="s">
+      <c r="M19" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="N19" s="109">
+      <c r="N19" s="110">
         <v>18.229571</v>
       </c>
-      <c r="O19" s="103">
+      <c r="O19" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P19" s="103">
+      <c r="P19" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="104">
         <v>19.0</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="104" t="s">
         <v>486</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="J20" s="107" t="s">
+      <c r="J20" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="L20" s="103">
+      <c r="L20" s="104">
         <v>0.0</v>
       </c>
-      <c r="M20" s="103" t="s">
+      <c r="M20" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="N20" s="109">
+      <c r="N20" s="110">
         <v>18.229571</v>
       </c>
-      <c r="O20" s="103">
+      <c r="O20" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P20" s="103">
+      <c r="P20" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="103">
+      <c r="C21" s="104">
         <v>22.0</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="111" t="s">
         <v>489</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H21" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="112" t="s">
         <v>490</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="113" t="s">
         <v>490</v>
       </c>
-      <c r="L21" s="103">
+      <c r="L21" s="104">
         <v>0.0</v>
       </c>
-      <c r="M21" s="103" t="s">
+      <c r="M21" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="N21" s="109">
+      <c r="N21" s="110">
         <v>7.96380922</v>
       </c>
-      <c r="O21" s="103">
+      <c r="O21" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P21" s="103">
+      <c r="P21" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="103">
+      <c r="C22" s="104">
         <v>22.0</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="104" t="s">
         <v>492</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="104" t="s">
         <v>493</v>
       </c>
-      <c r="H22" s="103" t="s">
+      <c r="H22" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="103" t="s">
+      <c r="I22" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="107" t="s">
+      <c r="J22" s="108" t="s">
         <v>494</v>
       </c>
-      <c r="K22" s="108" t="s">
+      <c r="K22" s="109" t="s">
         <v>494</v>
       </c>
-      <c r="L22" s="103">
+      <c r="L22" s="104">
         <v>1.0</v>
       </c>
-      <c r="M22" s="103" t="s">
+      <c r="M22" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="N22" s="109">
+      <c r="N22" s="110">
         <v>7.96380922</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P22" s="103">
+      <c r="P22" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="103">
+      <c r="C23" s="104">
         <v>22.0</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="F23" s="104" t="s">
         <v>495</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="104" t="s">
         <v>496</v>
       </c>
-      <c r="H23" s="103" t="s">
+      <c r="H23" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="I23" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="108" t="s">
+      <c r="K23" s="109" t="s">
         <v>497</v>
       </c>
-      <c r="L23" s="103">
+      <c r="L23" s="104">
         <v>0.0</v>
       </c>
-      <c r="M23" s="103" t="s">
+      <c r="M23" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="N23" s="109">
+      <c r="N23" s="110">
         <v>7.96380922</v>
       </c>
-      <c r="O23" s="103">
+      <c r="O23" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P23" s="103">
+      <c r="P23" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="103">
+      <c r="C24" s="104">
         <v>26.0</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="104" t="s">
         <v>499</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="H24" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="I24" s="103" t="s">
+      <c r="I24" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="107" t="s">
+      <c r="J24" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K24" s="108" t="s">
+      <c r="K24" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="L24" s="103">
+      <c r="L24" s="104">
         <v>1.0</v>
       </c>
-      <c r="M24" s="103" t="s">
+      <c r="M24" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="N24" s="109">
+      <c r="N24" s="110">
         <v>12.0048693</v>
       </c>
-      <c r="O24" s="103">
+      <c r="O24" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P24" s="103">
+      <c r="P24" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="103">
+      <c r="C25" s="104">
         <v>27.0</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="104" t="s">
         <v>501</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="J25" s="107" t="s">
+      <c r="J25" s="108" t="s">
         <v>502</v>
       </c>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="L25" s="103">
+      <c r="L25" s="104">
         <v>1.0</v>
       </c>
-      <c r="M25" s="103" t="s">
+      <c r="M25" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="N25" s="109">
+      <c r="N25" s="110">
         <v>7.68518881</v>
       </c>
-      <c r="O25" s="103">
+      <c r="O25" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P25" s="103">
+      <c r="P25" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="104">
         <v>28.0</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="104" t="s">
         <v>503</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="104" t="s">
         <v>504</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="103" t="s">
+      <c r="I26" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="K26" s="108" t="s">
+      <c r="K26" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L26" s="103">
+      <c r="L26" s="104">
         <v>1.0</v>
       </c>
-      <c r="M26" s="103" t="s">
+      <c r="M26" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="N26" s="109">
+      <c r="N26" s="110">
         <v>13.8712444</v>
       </c>
-      <c r="O26" s="103">
+      <c r="O26" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P26" s="103">
+      <c r="P26" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="103">
+      <c r="C27" s="104">
         <v>28.0</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" s="104" t="s">
         <v>510</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="103" t="s">
+      <c r="I27" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="J27" s="107" t="s">
+      <c r="J27" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L27" s="103">
+      <c r="L27" s="104">
         <v>1.0</v>
       </c>
-      <c r="M27" s="103" t="s">
+      <c r="M27" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="N27" s="109">
+      <c r="N27" s="110">
         <v>13.8712444</v>
       </c>
-      <c r="O27" s="103">
+      <c r="O27" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P27" s="103">
+      <c r="P27" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="103">
+      <c r="C28" s="104">
         <v>28.0</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="103" t="s">
+      <c r="F28" s="104" t="s">
         <v>513</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="104" t="s">
         <v>514</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="J28" s="107" t="s">
+      <c r="J28" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L28" s="103">
+      <c r="L28" s="104">
         <v>1.0</v>
       </c>
-      <c r="M28" s="103" t="s">
+      <c r="M28" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="N28" s="109">
+      <c r="N28" s="110">
         <v>13.8712444</v>
       </c>
-      <c r="O28" s="103">
+      <c r="O28" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P28" s="103">
+      <c r="P28" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="104">
         <v>28.0</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="104" t="s">
         <v>516</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="104" t="s">
         <v>517</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="103" t="s">
+      <c r="I29" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="J29" s="107" t="s">
+      <c r="J29" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="K29" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L29" s="103">
+      <c r="L29" s="104">
         <v>1.0</v>
       </c>
-      <c r="M29" s="103" t="s">
+      <c r="M29" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="N29" s="109">
+      <c r="N29" s="110">
         <v>13.8712444</v>
       </c>
-      <c r="O29" s="103">
+      <c r="O29" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P29" s="103">
+      <c r="P29" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="103">
+      <c r="C30" s="104">
         <v>28.0</v>
       </c>
-      <c r="D30" s="103" t="s">
+      <c r="D30" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="104" t="s">
         <v>521</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="104" t="s">
         <v>522</v>
       </c>
-      <c r="H30" s="103" t="s">
+      <c r="H30" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="103" t="s">
+      <c r="I30" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="J30" s="107" t="s">
+      <c r="J30" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="K30" s="108" t="s">
+      <c r="K30" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L30" s="103">
+      <c r="L30" s="104">
         <v>1.0</v>
       </c>
-      <c r="M30" s="103" t="s">
+      <c r="M30" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="N30" s="109">
+      <c r="N30" s="110">
         <v>13.8712444</v>
       </c>
-      <c r="O30" s="103">
+      <c r="O30" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P30" s="103">
+      <c r="P30" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="103">
+      <c r="C31" s="104">
         <v>28.0</v>
       </c>
-      <c r="D31" s="103" t="s">
+      <c r="D31" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="104" t="s">
         <v>524</v>
       </c>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="104" t="s">
         <v>525</v>
       </c>
-      <c r="H31" s="103" t="s">
+      <c r="H31" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="103" t="s">
+      <c r="I31" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="J31" s="107" t="s">
+      <c r="J31" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="K31" s="108" t="s">
+      <c r="K31" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L31" s="103">
+      <c r="L31" s="104">
         <v>1.0</v>
       </c>
-      <c r="M31" s="103" t="s">
+      <c r="M31" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="N31" s="109">
+      <c r="N31" s="110">
         <v>13.8712444</v>
       </c>
-      <c r="O31" s="103">
+      <c r="O31" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P31" s="103">
+      <c r="P31" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="103">
+      <c r="C32" s="104">
         <v>30.0</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="103" t="s">
+      <c r="F32" s="104" t="s">
         <v>527</v>
       </c>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="104" t="s">
         <v>528</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="H32" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="I32" s="103" t="s">
+      <c r="I32" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="J32" s="107" t="s">
+      <c r="J32" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L32" s="103">
+      <c r="L32" s="104">
         <v>1.0</v>
       </c>
-      <c r="M32" s="103" t="s">
+      <c r="M32" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="N32" s="109">
+      <c r="N32" s="110">
         <v>21.2486974</v>
       </c>
-      <c r="O32" s="103" t="s">
+      <c r="O32" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="P32" s="103">
+      <c r="P32" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="103">
+      <c r="C33" s="104">
         <v>35.0</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="104" t="s">
         <v>529</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="111" t="s">
         <v>530</v>
       </c>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="I33" s="110" t="s">
+      <c r="I33" s="111" t="s">
         <v>531</v>
       </c>
-      <c r="J33" s="114" t="s">
+      <c r="J33" s="115" t="s">
         <v>497</v>
       </c>
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="104">
         <v>0.0</v>
       </c>
-      <c r="M33" s="103" t="s">
+      <c r="M33" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="N33" s="109">
+      <c r="N33" s="110">
         <v>20.3295363</v>
       </c>
-      <c r="O33" s="103" t="s">
+      <c r="O33" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="P33" s="103" t="s">
+      <c r="P33" s="104" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="103">
+      <c r="C34" s="104">
         <v>35.0</v>
       </c>
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="104" t="s">
         <v>533</v>
       </c>
-      <c r="H34" s="103" t="s">
+      <c r="H34" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="I34" s="103" t="s">
+      <c r="I34" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="J34" s="116" t="s">
+      <c r="J34" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="K34" s="117" t="s">
+      <c r="K34" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L34" s="103">
+      <c r="L34" s="104">
         <v>1.0</v>
       </c>
-      <c r="M34" s="103" t="s">
+      <c r="M34" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="109">
+      <c r="N34" s="110">
         <v>20.3295363</v>
       </c>
-      <c r="O34" s="103" t="s">
+      <c r="O34" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="P34" s="103">
+      <c r="P34" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="104">
         <v>35.0</v>
       </c>
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="103" t="s">
+      <c r="F35" s="104" t="s">
         <v>534</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="104" t="s">
         <v>535</v>
       </c>
-      <c r="H35" s="110" t="s">
+      <c r="H35" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="I35" s="110" t="s">
+      <c r="I35" s="111" t="s">
         <v>531</v>
       </c>
-      <c r="J35" s="118" t="s">
+      <c r="J35" s="119" t="s">
         <v>497</v>
       </c>
-      <c r="K35" s="117" t="s">
+      <c r="K35" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L35" s="103">
+      <c r="L35" s="104">
         <v>1.0</v>
       </c>
-      <c r="M35" s="103" t="s">
+      <c r="M35" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="109">
+      <c r="N35" s="110">
         <v>20.3295363</v>
       </c>
-      <c r="O35" s="103" t="s">
+      <c r="O35" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="P35" s="103">
+      <c r="P35" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="103">
+      <c r="C36" s="104">
         <v>35.0</v>
       </c>
-      <c r="D36" s="113" t="s">
+      <c r="D36" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="103" t="s">
+      <c r="E36" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F36" s="103" t="s">
+      <c r="F36" s="104" t="s">
         <v>536</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="111" t="s">
         <v>537</v>
       </c>
-      <c r="H36" s="110" t="s">
+      <c r="H36" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="I36" s="110" t="s">
+      <c r="I36" s="111" t="s">
         <v>531</v>
       </c>
-      <c r="J36" s="114" t="s">
+      <c r="J36" s="115" t="s">
         <v>497</v>
       </c>
-      <c r="K36" s="115" t="s">
+      <c r="K36" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="L36" s="103">
+      <c r="L36" s="104">
         <v>0.0</v>
       </c>
-      <c r="M36" s="103" t="s">
+      <c r="M36" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="N36" s="109">
+      <c r="N36" s="110">
         <v>20.3295363</v>
       </c>
-      <c r="O36" s="103" t="s">
+      <c r="O36" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="P36" s="103">
+      <c r="P36" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="103">
+      <c r="C37" s="104">
         <v>40.0</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F37" s="103" t="s">
+      <c r="F37" s="104" t="s">
         <v>538</v>
       </c>
-      <c r="G37" s="110" t="s">
+      <c r="G37" s="111" t="s">
         <v>539</v>
       </c>
-      <c r="H37" s="110" t="s">
+      <c r="H37" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="110" t="s">
+      <c r="I37" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="112" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="115" t="s">
+      <c r="K37" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="L37" s="103">
+      <c r="L37" s="104">
         <v>0.0</v>
       </c>
-      <c r="M37" s="103" t="s">
+      <c r="M37" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="N37" s="109">
+      <c r="N37" s="110">
         <v>12.0323181</v>
       </c>
-      <c r="O37" s="103" t="s">
+      <c r="O37" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="P37" s="103">
+      <c r="P37" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="103">
+      <c r="C38" s="104">
         <v>40.0</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="103" t="s">
+      <c r="E38" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="104" t="s">
         <v>540</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="G38" s="104" t="s">
         <v>541</v>
       </c>
-      <c r="H38" s="103" t="s">
+      <c r="H38" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="I38" s="103" t="s">
+      <c r="I38" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="107" t="s">
+      <c r="J38" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K38" s="117" t="s">
+      <c r="K38" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L38" s="103">
+      <c r="L38" s="104">
         <v>1.0</v>
       </c>
-      <c r="M38" s="103" t="s">
+      <c r="M38" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="N38" s="109">
+      <c r="N38" s="110">
         <v>12.0323181</v>
       </c>
-      <c r="O38" s="103" t="s">
+      <c r="O38" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="P38" s="103">
+      <c r="P38" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="103">
+      <c r="C39" s="104">
         <v>40.0</v>
       </c>
-      <c r="D39" s="103" t="s">
+      <c r="D39" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="104" t="s">
         <v>544</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="G39" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="H39" s="103" t="s">
+      <c r="H39" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="I39" s="103" t="s">
+      <c r="I39" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="J39" s="107" t="s">
+      <c r="J39" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K39" s="117" t="s">
+      <c r="K39" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L39" s="103">
+      <c r="L39" s="104">
         <v>1.0</v>
       </c>
-      <c r="M39" s="103" t="s">
+      <c r="M39" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="N39" s="109">
+      <c r="N39" s="110">
         <v>12.0323181</v>
       </c>
-      <c r="O39" s="103" t="s">
+      <c r="O39" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="P39" s="103">
+      <c r="P39" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="103">
+      <c r="C40" s="104">
         <v>40.0</v>
       </c>
-      <c r="D40" s="103" t="s">
+      <c r="D40" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="104" t="s">
         <v>546</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="104" t="s">
         <v>547</v>
       </c>
-      <c r="H40" s="103" t="s">
+      <c r="H40" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="I40" s="103" t="s">
+      <c r="I40" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="J40" s="107" t="s">
+      <c r="J40" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K40" s="117" t="s">
+      <c r="K40" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L40" s="103">
+      <c r="L40" s="104">
         <v>1.0</v>
       </c>
-      <c r="M40" s="103" t="s">
+      <c r="M40" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="N40" s="109">
+      <c r="N40" s="110">
         <v>12.0323181</v>
       </c>
-      <c r="O40" s="103" t="s">
+      <c r="O40" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="P40" s="103">
+      <c r="P40" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="103">
+      <c r="C41" s="104">
         <v>55.0</v>
       </c>
-      <c r="D41" s="119" t="s">
+      <c r="D41" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="103" t="s">
+      <c r="F41" s="104" t="s">
         <v>549</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="111" t="s">
         <v>550</v>
       </c>
-      <c r="H41" s="110" t="s">
+      <c r="H41" s="111" t="s">
         <v>318</v>
       </c>
-      <c r="I41" s="110" t="s">
+      <c r="I41" s="111" t="s">
         <v>551</v>
       </c>
-      <c r="J41" s="120" t="s">
+      <c r="J41" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="K41" s="115" t="s">
+      <c r="K41" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="L41" s="103">
+      <c r="L41" s="104">
         <v>1.0</v>
       </c>
-      <c r="M41" s="103" t="s">
+      <c r="M41" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N41" s="109">
+      <c r="N41" s="110">
         <v>12.7616326</v>
       </c>
-      <c r="O41" s="103" t="s">
+      <c r="O41" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="P41" s="103">
+      <c r="P41" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="103">
+      <c r="C42" s="104">
         <v>55.0</v>
       </c>
-      <c r="D42" s="119" t="s">
+      <c r="D42" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="104" t="s">
         <v>553</v>
       </c>
-      <c r="G42" s="121" t="s">
+      <c r="G42" s="122" t="s">
         <v>554</v>
       </c>
-      <c r="H42" s="103" t="s">
+      <c r="H42" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="I42" s="103" t="s">
+      <c r="I42" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="J42" s="122" t="s">
+      <c r="J42" s="123" t="s">
         <v>555</v>
       </c>
-      <c r="K42" s="117" t="s">
+      <c r="K42" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="103">
+      <c r="L42" s="104">
         <v>1.0</v>
       </c>
-      <c r="M42" s="103" t="s">
+      <c r="M42" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N42" s="109">
+      <c r="N42" s="110">
         <v>12.7616326</v>
       </c>
-      <c r="O42" s="103" t="s">
+      <c r="O42" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="P42" s="103">
+      <c r="P42" s="104">
         <v>3500.0</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="103">
+      <c r="C43" s="104">
         <v>55.0</v>
       </c>
-      <c r="D43" s="119" t="s">
+      <c r="D43" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="104" t="s">
         <v>559</v>
       </c>
-      <c r="G43" s="123" t="s">
+      <c r="G43" s="124" t="s">
         <v>440</v>
       </c>
-      <c r="H43" s="103" t="s">
+      <c r="H43" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="I43" s="103" t="s">
+      <c r="I43" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="J43" s="124" t="s">
+      <c r="J43" s="125" t="s">
         <v>442</v>
       </c>
-      <c r="K43" s="117" t="s">
+      <c r="K43" s="118" t="s">
         <v>560</v>
       </c>
-      <c r="L43" s="103">
+      <c r="L43" s="104">
         <v>1.0</v>
       </c>
-      <c r="M43" s="103" t="s">
+      <c r="M43" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N43" s="109">
+      <c r="N43" s="110">
         <v>12.7616326</v>
       </c>
-      <c r="O43" s="103" t="s">
+      <c r="O43" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="P43" s="103">
+      <c r="P43" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="103">
+      <c r="C44" s="104">
         <v>55.0</v>
       </c>
-      <c r="D44" s="119" t="s">
+      <c r="D44" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="104" t="s">
         <v>564</v>
       </c>
-      <c r="G44" s="121" t="s">
+      <c r="G44" s="122" t="s">
         <v>565</v>
       </c>
-      <c r="H44" s="103" t="s">
+      <c r="H44" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="I44" s="103" t="s">
+      <c r="I44" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="J44" s="122" t="s">
+      <c r="J44" s="123" t="s">
         <v>555</v>
       </c>
-      <c r="K44" s="117" t="s">
+      <c r="K44" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="103">
+      <c r="L44" s="104">
         <v>1.0</v>
       </c>
-      <c r="M44" s="103" t="s">
+      <c r="M44" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N44" s="109">
+      <c r="N44" s="110">
         <v>12.7616326</v>
       </c>
-      <c r="O44" s="103" t="s">
+      <c r="O44" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="P44" s="103">
+      <c r="P44" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="103" t="s">
+      <c r="A45" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="103">
+      <c r="C45" s="104">
         <v>55.0</v>
       </c>
-      <c r="D45" s="119" t="s">
+      <c r="D45" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="104" t="s">
         <v>567</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="104" t="s">
         <v>568</v>
       </c>
-      <c r="H45" s="103" t="s">
+      <c r="H45" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="I45" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="J45" s="125" t="s">
+      <c r="J45" s="126" t="s">
         <v>555</v>
       </c>
-      <c r="K45" s="117" t="s">
+      <c r="K45" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="103">
+      <c r="L45" s="104">
         <v>1.0</v>
       </c>
-      <c r="M45" s="103" t="s">
+      <c r="M45" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N45" s="109">
+      <c r="N45" s="110">
         <v>12.7616326</v>
       </c>
-      <c r="O45" s="103" t="s">
+      <c r="O45" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="P45" s="103">
+      <c r="P45" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="103">
+      <c r="C46" s="104">
         <v>55.0</v>
       </c>
-      <c r="D46" s="119" t="s">
+      <c r="D46" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="104" t="s">
         <v>570</v>
       </c>
-      <c r="G46" s="123" t="s">
+      <c r="G46" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H46" s="103" t="s">
+      <c r="H46" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="I46" s="103" t="s">
+      <c r="I46" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="J46" s="124" t="s">
+      <c r="J46" s="125" t="s">
         <v>442</v>
       </c>
-      <c r="K46" s="117" t="s">
+      <c r="K46" s="118" t="s">
         <v>560</v>
       </c>
-      <c r="L46" s="103">
+      <c r="L46" s="104">
         <v>1.0</v>
       </c>
-      <c r="M46" s="103" t="s">
+      <c r="M46" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N46" s="109">
+      <c r="N46" s="110">
         <v>12.7616326</v>
       </c>
-      <c r="O46" s="103" t="s">
+      <c r="O46" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="P46" s="103">
+      <c r="P46" s="104">
         <v>3000.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="103">
+      <c r="C47" s="104">
         <v>95.0</v>
       </c>
-      <c r="D47" s="103" t="s">
+      <c r="D47" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="104" t="s">
         <v>572</v>
       </c>
-      <c r="G47" s="103" t="s">
+      <c r="G47" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="H47" s="103" t="s">
+      <c r="H47" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="I47" s="103" t="s">
+      <c r="I47" s="104" t="s">
         <v>574</v>
       </c>
-      <c r="J47" s="107" t="s">
+      <c r="J47" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K47" s="117" t="s">
+      <c r="K47" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L47" s="103">
+      <c r="L47" s="104">
         <v>1.0</v>
       </c>
-      <c r="M47" s="103" t="s">
+      <c r="M47" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="N47" s="109">
+      <c r="N47" s="110">
         <v>6.08292251</v>
       </c>
-      <c r="O47" s="103">
+      <c r="O47" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P47" s="103">
+      <c r="P47" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="103">
+      <c r="C48" s="104">
         <v>95.0</v>
       </c>
-      <c r="D48" s="103" t="s">
+      <c r="D48" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="103" t="s">
+      <c r="E48" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="F48" s="103" t="s">
+      <c r="F48" s="104" t="s">
         <v>577</v>
       </c>
-      <c r="G48" s="103" t="s">
+      <c r="G48" s="104" t="s">
         <v>578</v>
       </c>
-      <c r="H48" s="103" t="s">
+      <c r="H48" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="I48" s="103" t="s">
+      <c r="I48" s="104" t="s">
         <v>574</v>
       </c>
-      <c r="J48" s="107" t="s">
+      <c r="J48" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="K48" s="117" t="s">
+      <c r="K48" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L48" s="103">
+      <c r="L48" s="104">
         <v>1.0</v>
       </c>
-      <c r="M48" s="103" t="s">
+      <c r="M48" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="N48" s="109">
+      <c r="N48" s="110">
         <v>6.08292251</v>
       </c>
-      <c r="O48" s="103">
+      <c r="O48" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P48" s="103">
+      <c r="P48" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="103">
+      <c r="C49" s="104">
         <v>96.0</v>
       </c>
-      <c r="D49" s="103" t="s">
+      <c r="D49" s="104" t="s">
         <v>580</v>
       </c>
-      <c r="E49" s="103" t="s">
+      <c r="E49" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F49" s="103" t="s">
+      <c r="F49" s="104" t="s">
         <v>581</v>
       </c>
-      <c r="G49" s="103" t="s">
+      <c r="G49" s="104" t="s">
         <v>582</v>
       </c>
-      <c r="H49" s="103" t="s">
+      <c r="H49" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="I49" s="103" t="s">
+      <c r="I49" s="104" t="s">
         <v>412</v>
       </c>
-      <c r="J49" s="107" t="s">
+      <c r="J49" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="K49" s="117" t="s">
+      <c r="K49" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L49" s="103">
+      <c r="L49" s="104">
         <v>1.0</v>
       </c>
-      <c r="M49" s="103" t="s">
+      <c r="M49" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="N49" s="109">
+      <c r="N49" s="110">
         <v>8.99927986</v>
       </c>
-      <c r="O49" s="103">
+      <c r="O49" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P49" s="103">
+      <c r="P49" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="103">
+      <c r="C50" s="104">
         <v>98.0</v>
       </c>
-      <c r="D50" s="103" t="s">
+      <c r="D50" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="103" t="s">
+      <c r="E50" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="F50" s="103" t="s">
+      <c r="F50" s="104" t="s">
         <v>583</v>
       </c>
-      <c r="G50" s="103" t="s">
+      <c r="G50" s="104" t="s">
         <v>584</v>
       </c>
-      <c r="H50" s="103" t="s">
+      <c r="H50" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="I50" s="103" t="s">
+      <c r="I50" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="J50" s="126" t="s">
+      <c r="J50" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="K50" s="117" t="s">
+      <c r="K50" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="L50" s="103">
+      <c r="L50" s="104">
         <v>0.0</v>
       </c>
-      <c r="M50" s="103" t="s">
+      <c r="M50" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="N50" s="109">
+      <c r="N50" s="110">
         <v>20.5393281</v>
       </c>
-      <c r="O50" s="103" t="s">
+      <c r="O50" s="104" t="s">
         <v>629</v>
       </c>
-      <c r="P50" s="103">
+      <c r="P50" s="104">
         <v>3500.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="103" t="s">
+      <c r="A51" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B51" s="103" t="s">
+      <c r="B51" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="103">
+      <c r="C51" s="104">
         <v>98.0</v>
       </c>
-      <c r="D51" s="103" t="s">
+      <c r="D51" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="103" t="s">
+      <c r="E51" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="F51" s="103" t="s">
+      <c r="F51" s="104" t="s">
         <v>586</v>
       </c>
-      <c r="G51" s="103" t="s">
+      <c r="G51" s="104" t="s">
         <v>587</v>
       </c>
-      <c r="H51" s="103" t="s">
+      <c r="H51" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="I51" s="103" t="s">
+      <c r="I51" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="J51" s="107" t="s">
+      <c r="J51" s="108" t="s">
         <v>555</v>
       </c>
-      <c r="K51" s="117" t="s">
+      <c r="K51" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="L51" s="103">
+      <c r="L51" s="104">
         <v>1.0</v>
       </c>
-      <c r="M51" s="103" t="s">
+      <c r="M51" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="N51" s="109">
+      <c r="N51" s="110">
         <v>20.5393281</v>
       </c>
-      <c r="O51" s="103" t="s">
+      <c r="O51" s="104" t="s">
         <v>629</v>
       </c>
-      <c r="P51" s="103">
+      <c r="P51" s="104">
         <v>3500.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="103">
+      <c r="C52" s="104">
         <v>98.0</v>
       </c>
-      <c r="D52" s="103" t="s">
+      <c r="D52" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="F52" s="103" t="s">
+      <c r="F52" s="104" t="s">
         <v>588</v>
       </c>
-      <c r="G52" s="103" t="s">
+      <c r="G52" s="104" t="s">
         <v>589</v>
       </c>
-      <c r="H52" s="103" t="s">
+      <c r="H52" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="I52" s="103" t="s">
+      <c r="I52" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="J52" s="107" t="s">
+      <c r="J52" s="108" t="s">
         <v>555</v>
       </c>
-      <c r="K52" s="117" t="s">
+      <c r="K52" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="L52" s="103">
+      <c r="L52" s="104">
         <v>1.0</v>
       </c>
-      <c r="M52" s="103" t="s">
+      <c r="M52" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="N52" s="109">
+      <c r="N52" s="110">
         <v>20.5393281</v>
       </c>
-      <c r="O52" s="103" t="s">
+      <c r="O52" s="104" t="s">
         <v>629</v>
       </c>
-      <c r="P52" s="103">
+      <c r="P52" s="104">
         <v>3500.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="103">
+      <c r="C53" s="104">
         <v>102.0</v>
       </c>
-      <c r="D53" s="103" t="s">
+      <c r="D53" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="F53" s="103" t="s">
+      <c r="F53" s="104" t="s">
         <v>590</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="104" t="s">
         <v>591</v>
       </c>
-      <c r="H53" s="103" t="s">
+      <c r="H53" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="I53" s="103" t="s">
+      <c r="I53" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="J53" s="107" t="s">
+      <c r="J53" s="108" t="s">
         <v>543</v>
       </c>
-      <c r="K53" s="108" t="s">
+      <c r="K53" s="109" t="s">
         <v>543</v>
       </c>
-      <c r="L53" s="103">
+      <c r="L53" s="104">
         <v>1.0</v>
       </c>
-      <c r="M53" s="103" t="s">
+      <c r="M53" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="N53" s="109">
+      <c r="N53" s="110">
         <v>7.0320315</v>
       </c>
-      <c r="O53" s="103">
+      <c r="O53" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P53" s="103">
+      <c r="P53" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B54" s="103" t="s">
+      <c r="B54" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="103">
+      <c r="C54" s="104">
         <v>102.0</v>
       </c>
-      <c r="D54" s="103" t="s">
+      <c r="D54" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="103" t="s">
+      <c r="E54" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="F54" s="103" t="s">
+      <c r="F54" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="G54" s="103" t="s">
+      <c r="G54" s="104" t="s">
         <v>593</v>
       </c>
-      <c r="H54" s="103" t="s">
+      <c r="H54" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="I54" s="103" t="s">
+      <c r="I54" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="J54" s="107" t="s">
+      <c r="J54" s="108" t="s">
         <v>543</v>
       </c>
-      <c r="K54" s="108" t="s">
+      <c r="K54" s="109" t="s">
         <v>543</v>
       </c>
-      <c r="L54" s="103">
+      <c r="L54" s="104">
         <v>1.0</v>
       </c>
-      <c r="M54" s="103" t="s">
+      <c r="M54" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="N54" s="109">
+      <c r="N54" s="110">
         <v>7.0320315</v>
       </c>
-      <c r="O54" s="103">
+      <c r="O54" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P54" s="103">
+      <c r="P54" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B55" s="103" t="s">
+      <c r="B55" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="103">
+      <c r="C55" s="104">
         <v>102.0</v>
       </c>
-      <c r="D55" s="103" t="s">
+      <c r="D55" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="F55" s="103" t="s">
+      <c r="F55" s="104" t="s">
         <v>594</v>
       </c>
-      <c r="G55" s="103" t="s">
+      <c r="G55" s="104" t="s">
         <v>595</v>
       </c>
-      <c r="H55" s="103" t="s">
+      <c r="H55" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="I55" s="103" t="s">
+      <c r="I55" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="J55" s="107" t="s">
+      <c r="J55" s="108" t="s">
         <v>543</v>
       </c>
-      <c r="K55" s="108" t="s">
+      <c r="K55" s="109" t="s">
         <v>543</v>
       </c>
-      <c r="L55" s="103">
+      <c r="L55" s="104">
         <v>1.0</v>
       </c>
-      <c r="M55" s="103" t="s">
+      <c r="M55" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="N55" s="109">
+      <c r="N55" s="110">
         <v>7.0320315</v>
       </c>
-      <c r="O55" s="103">
+      <c r="O55" s="104">
         <v>2000.0</v>
       </c>
-      <c r="P55" s="103">
+      <c r="P55" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="103" t="s">
+      <c r="A56" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="103">
+      <c r="C56" s="104">
         <v>103.0</v>
       </c>
-      <c r="D56" s="103" t="s">
+      <c r="D56" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="E56" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="F56" s="104" t="s">
         <v>596</v>
       </c>
-      <c r="G56" s="103" t="s">
+      <c r="G56" s="104" t="s">
         <v>597</v>
       </c>
-      <c r="H56" s="103" t="s">
+      <c r="H56" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I56" s="103" t="s">
+      <c r="I56" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="J56" s="107" t="s">
+      <c r="J56" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K56" s="117" t="s">
+      <c r="K56" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L56" s="103">
+      <c r="L56" s="104">
         <v>0.0</v>
       </c>
-      <c r="M56" s="103" t="s">
+      <c r="M56" s="104" t="s">
         <v>377</v>
       </c>
-      <c r="N56" s="109">
+      <c r="N56" s="110">
         <v>30.7005423</v>
       </c>
-      <c r="O56" s="103">
+      <c r="O56" s="104">
         <v>4000.0</v>
       </c>
-      <c r="P56" s="103">
+      <c r="P56" s="104">
         <v>4000.0</v>
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="103" t="s">
+      <c r="A57" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="103" t="s">
+      <c r="B57" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="103">
+      <c r="C57" s="104">
         <v>103.0</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="F57" s="103" t="s">
+      <c r="F57" s="104" t="s">
         <v>598</v>
       </c>
-      <c r="G57" s="103" t="s">
+      <c r="G57" s="104" t="s">
         <v>599</v>
       </c>
-      <c r="H57" s="103" t="s">
+      <c r="H57" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="103" t="s">
+      <c r="I57" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="J57" s="107" t="s">
+      <c r="J57" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K57" s="117" t="s">
+      <c r="K57" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L57" s="103">
+      <c r="L57" s="104">
         <v>1.0</v>
       </c>
-      <c r="M57" s="103" t="s">
+      <c r="M57" s="104" t="s">
         <v>377</v>
       </c>
-      <c r="N57" s="109">
+      <c r="N57" s="110">
         <v>30.7005423</v>
       </c>
-      <c r="O57" s="103">
+      <c r="O57" s="104">
         <v>4000.0</v>
       </c>
-      <c r="P57" s="103">
+      <c r="P57" s="104">
         <v>4000.0</v>
       </c>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B58" s="103" t="s">
+      <c r="B58" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="103">
+      <c r="C58" s="104">
         <v>104.0</v>
       </c>
-      <c r="D58" s="103" t="s">
+      <c r="D58" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="103" t="s">
+      <c r="E58" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="103" t="s">
+      <c r="F58" s="104" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="103" t="s">
+      <c r="G58" s="104" t="s">
         <v>601</v>
       </c>
-      <c r="H58" s="103" t="s">
+      <c r="H58" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I58" s="103" t="s">
+      <c r="I58" s="104" t="s">
         <v>381</v>
       </c>
-      <c r="J58" s="107" t="s">
+      <c r="J58" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K58" s="117" t="s">
+      <c r="K58" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L58" s="103">
+      <c r="L58" s="104">
         <v>1.0</v>
       </c>
-      <c r="M58" s="103" t="s">
+      <c r="M58" s="104" t="s">
         <v>377</v>
       </c>
-      <c r="N58" s="109">
+      <c r="N58" s="110">
         <v>12.2839223</v>
       </c>
-      <c r="O58" s="103" t="s">
+      <c r="O58" s="104" t="s">
         <v>630</v>
       </c>
-      <c r="P58" s="103">
+      <c r="P58" s="104">
         <v>2250.0</v>
       </c>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="103" t="s">
+      <c r="A59" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="103">
+      <c r="C59" s="104">
         <v>105.0</v>
       </c>
-      <c r="D59" s="103" t="s">
+      <c r="D59" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="103" t="s">
+      <c r="E59" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F59" s="103" t="s">
+      <c r="F59" s="104" t="s">
         <v>602</v>
       </c>
-      <c r="G59" s="103" t="s">
+      <c r="G59" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="H59" s="103" t="s">
+      <c r="H59" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="I59" s="103" t="s">
+      <c r="I59" s="104" t="s">
         <v>604</v>
       </c>
-      <c r="J59" s="107" t="s">
+      <c r="J59" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K59" s="108" t="s">
+      <c r="K59" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L59" s="103">
+      <c r="L59" s="104">
         <v>1.0</v>
       </c>
-      <c r="M59" s="103" t="s">
+      <c r="M59" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="N59" s="109">
+      <c r="N59" s="110">
         <v>12.8090755</v>
       </c>
-      <c r="O59" s="103" t="s">
+      <c r="O59" s="104" t="s">
         <v>631</v>
       </c>
-      <c r="P59" s="103">
+      <c r="P59" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B60" s="103" t="s">
+      <c r="B60" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="103">
+      <c r="C60" s="104">
         <v>105.0</v>
       </c>
-      <c r="D60" s="103" t="s">
+      <c r="D60" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="103" t="s">
+      <c r="E60" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F60" s="103" t="s">
+      <c r="F60" s="104" t="s">
         <v>606</v>
       </c>
-      <c r="G60" s="103" t="s">
+      <c r="G60" s="104" t="s">
         <v>607</v>
       </c>
-      <c r="H60" s="103" t="s">
+      <c r="H60" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="I60" s="103" t="s">
+      <c r="I60" s="104" t="s">
         <v>604</v>
       </c>
-      <c r="J60" s="107" t="s">
+      <c r="J60" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K60" s="108" t="s">
+      <c r="K60" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L60" s="103">
+      <c r="L60" s="104">
         <v>0.0</v>
       </c>
-      <c r="M60" s="103" t="s">
+      <c r="M60" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="N60" s="109">
+      <c r="N60" s="110">
         <v>12.8090755</v>
       </c>
-      <c r="O60" s="103" t="s">
+      <c r="O60" s="104" t="s">
         <v>631</v>
       </c>
-      <c r="P60" s="103">
+      <c r="P60" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="103">
+      <c r="C61" s="104">
         <v>105.0</v>
       </c>
-      <c r="D61" s="103" t="s">
+      <c r="D61" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="103" t="s">
+      <c r="E61" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="F61" s="103" t="s">
+      <c r="F61" s="104" t="s">
         <v>608</v>
       </c>
-      <c r="G61" s="103" t="s">
+      <c r="G61" s="104" t="s">
         <v>609</v>
       </c>
-      <c r="H61" s="103" t="s">
+      <c r="H61" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="I61" s="103" t="s">
+      <c r="I61" s="104" t="s">
         <v>604</v>
       </c>
-      <c r="J61" s="107" t="s">
+      <c r="J61" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K61" s="108" t="s">
+      <c r="K61" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="L61" s="103">
+      <c r="L61" s="104">
         <v>0.0</v>
       </c>
-      <c r="M61" s="103" t="s">
+      <c r="M61" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="N61" s="109">
+      <c r="N61" s="110">
         <v>12.8090755</v>
       </c>
-      <c r="O61" s="103" t="s">
+      <c r="O61" s="104" t="s">
         <v>631</v>
       </c>
-      <c r="P61" s="103">
+      <c r="P61" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="103" t="s">
+      <c r="A62" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="103">
+      <c r="C62" s="104">
         <v>109.0</v>
       </c>
-      <c r="D62" s="103" t="s">
+      <c r="D62" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="103" t="s">
+      <c r="E62" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F62" s="103" t="s">
+      <c r="F62" s="104" t="s">
         <v>610</v>
       </c>
-      <c r="G62" s="103" t="s">
+      <c r="G62" s="104" t="s">
         <v>611</v>
       </c>
-      <c r="H62" s="103" t="s">
+      <c r="H62" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I62" s="103" t="s">
+      <c r="I62" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="J62" s="107" t="s">
+      <c r="J62" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K62" s="117" t="s">
+      <c r="K62" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L62" s="103">
+      <c r="L62" s="104">
         <v>0.0</v>
       </c>
-      <c r="M62" s="103" t="s">
+      <c r="M62" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="N62" s="109">
+      <c r="N62" s="110">
         <v>13.581307</v>
       </c>
-      <c r="O62" s="103" t="s">
+      <c r="O62" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="P62" s="103">
+      <c r="P62" s="104">
         <v>2250.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="103" t="s">
+      <c r="A63" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B63" s="103" t="s">
+      <c r="B63" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="103">
+      <c r="C63" s="104">
         <v>109.0</v>
       </c>
-      <c r="D63" s="103" t="s">
+      <c r="D63" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="103" t="s">
+      <c r="E63" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F63" s="103" t="s">
+      <c r="F63" s="104" t="s">
         <v>612</v>
       </c>
-      <c r="G63" s="103" t="s">
+      <c r="G63" s="104" t="s">
         <v>613</v>
       </c>
-      <c r="H63" s="103" t="s">
+      <c r="H63" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I63" s="103" t="s">
+      <c r="I63" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="J63" s="107" t="s">
+      <c r="J63" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K63" s="117" t="s">
+      <c r="K63" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L63" s="103">
+      <c r="L63" s="104">
         <v>1.0</v>
       </c>
-      <c r="M63" s="103" t="s">
+      <c r="M63" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="N63" s="109">
+      <c r="N63" s="110">
         <v>13.581307</v>
       </c>
-      <c r="O63" s="103" t="s">
+      <c r="O63" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="P63" s="103">
+      <c r="P63" s="104">
         <v>2500.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="103" t="s">
+      <c r="A64" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="103">
+      <c r="C64" s="104">
         <v>109.0</v>
       </c>
-      <c r="D64" s="103" t="s">
+      <c r="D64" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="103" t="s">
+      <c r="E64" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="103" t="s">
+      <c r="F64" s="104" t="s">
         <v>617</v>
       </c>
-      <c r="G64" s="103" t="s">
+      <c r="G64" s="104" t="s">
         <v>618</v>
       </c>
-      <c r="H64" s="103" t="s">
+      <c r="H64" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I64" s="103" t="s">
+      <c r="I64" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="J64" s="107" t="s">
+      <c r="J64" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K64" s="117" t="s">
+      <c r="K64" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L64" s="103">
+      <c r="L64" s="104">
         <v>0.0</v>
       </c>
-      <c r="M64" s="103" t="s">
+      <c r="M64" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="N64" s="109">
+      <c r="N64" s="110">
         <v>13.581307</v>
       </c>
-      <c r="O64" s="103" t="s">
+      <c r="O64" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="P64" s="103">
+      <c r="P64" s="104">
         <v>2250.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="103" t="s">
+      <c r="A65" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B65" s="103" t="s">
+      <c r="B65" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="103">
+      <c r="C65" s="104">
         <v>109.0</v>
       </c>
-      <c r="D65" s="103" t="s">
+      <c r="D65" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="103" t="s">
+      <c r="E65" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="F65" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="G65" s="104" t="s">
         <v>620</v>
       </c>
-      <c r="H65" s="103" t="s">
+      <c r="H65" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I65" s="103" t="s">
+      <c r="I65" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="J65" s="107" t="s">
+      <c r="J65" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K65" s="117" t="s">
+      <c r="K65" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L65" s="103">
+      <c r="L65" s="104">
         <v>1.0</v>
       </c>
-      <c r="M65" s="103" t="s">
+      <c r="M65" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="N65" s="109">
+      <c r="N65" s="110">
         <v>13.581307</v>
       </c>
-      <c r="O65" s="103" t="s">
+      <c r="O65" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="P65" s="103">
+      <c r="P65" s="104">
         <v>2000.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="103" t="s">
+      <c r="A66" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B66" s="103" t="s">
+      <c r="B66" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="103">
+      <c r="C66" s="104">
         <v>111.0</v>
       </c>
-      <c r="D66" s="103" t="s">
+      <c r="D66" s="104" t="s">
         <v>622</v>
       </c>
-      <c r="E66" s="103" t="s">
+      <c r="E66" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F66" s="103" t="s">
+      <c r="F66" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="G66" s="103" t="s">
+      <c r="G66" s="104" t="s">
         <v>470</v>
       </c>
-      <c r="H66" s="103" t="s">
+      <c r="H66" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I66" s="103" t="s">
+      <c r="I66" s="104" t="s">
         <v>397</v>
       </c>
-      <c r="J66" s="107" t="s">
+      <c r="J66" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K66" s="117" t="s">
+      <c r="K66" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L66" s="103">
+      <c r="L66" s="104">
         <v>1.0</v>
       </c>
-      <c r="M66" s="103" t="s">
+      <c r="M66" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="N66" s="109">
+      <c r="N66" s="110">
         <v>18.4645998</v>
       </c>
-      <c r="O66" s="103" t="s">
+      <c r="O66" s="104" t="s">
         <v>633</v>
       </c>
-      <c r="P66" s="103">
+      <c r="P66" s="104">
         <v>2750.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="103">
+      <c r="C67" s="104">
         <v>111.0</v>
       </c>
-      <c r="D67" s="103" t="s">
+      <c r="D67" s="104" t="s">
         <v>622</v>
       </c>
-      <c r="E67" s="103" t="s">
+      <c r="E67" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F67" s="103" t="s">
+      <c r="F67" s="104" t="s">
         <v>624</v>
       </c>
-      <c r="G67" s="103" t="s">
+      <c r="G67" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="H67" s="103" t="s">
+      <c r="H67" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I67" s="103" t="s">
+      <c r="I67" s="104" t="s">
         <v>397</v>
       </c>
-      <c r="J67" s="107" t="s">
+      <c r="J67" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K67" s="117" t="s">
+      <c r="K67" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L67" s="103">
+      <c r="L67" s="104">
         <v>0.0</v>
       </c>
-      <c r="M67" s="103" t="s">
+      <c r="M67" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="N67" s="109">
+      <c r="N67" s="110">
         <v>18.4645998</v>
       </c>
-      <c r="O67" s="103" t="s">
+      <c r="O67" s="104" t="s">
         <v>633</v>
       </c>
-      <c r="P67" s="103">
+      <c r="P67" s="104">
         <v>2750.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="103" t="s">
+      <c r="A68" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="103" t="s">
+      <c r="B68" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="103">
+      <c r="C68" s="104">
         <v>111.0</v>
       </c>
-      <c r="D68" s="103" t="s">
+      <c r="D68" s="104" t="s">
         <v>622</v>
       </c>
-      <c r="E68" s="103" t="s">
+      <c r="E68" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="F68" s="103" t="s">
+      <c r="F68" s="104" t="s">
         <v>626</v>
       </c>
-      <c r="G68" s="103" t="s">
+      <c r="G68" s="104" t="s">
         <v>620</v>
       </c>
-      <c r="H68" s="103" t="s">
+      <c r="H68" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="I68" s="103" t="s">
+      <c r="I68" s="104" t="s">
         <v>397</v>
       </c>
-      <c r="J68" s="107" t="s">
+      <c r="J68" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="K68" s="117" t="s">
+      <c r="K68" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="L68" s="103">
+      <c r="L68" s="104">
         <v>0.0</v>
       </c>
-      <c r="M68" s="103" t="s">
+      <c r="M68" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="N68" s="109">
+      <c r="N68" s="110">
         <v>18.4645998</v>
       </c>
-      <c r="O68" s="103" t="s">
+      <c r="O68" s="104" t="s">
         <v>633</v>
       </c>
-      <c r="P68" s="103">
+      <c r="P68" s="104">
         <v>2750.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="J69" s="107"/>
-      <c r="K69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="109"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="J70" s="107"/>
-      <c r="K70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="109"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="J71" s="107"/>
-      <c r="K71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="109"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="J72" s="107"/>
-      <c r="K72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="109"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="J73" s="107"/>
-      <c r="K73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="109"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="J74" s="107"/>
-      <c r="K74" s="108"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="109"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="J75" s="107"/>
-      <c r="K75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="109"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="J76" s="107"/>
-      <c r="K76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="109"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="J77" s="107"/>
-      <c r="K77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="109"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="J78" s="107"/>
-      <c r="K78" s="108"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="109"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="J79" s="107"/>
-      <c r="K79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="109"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="J80" s="107"/>
-      <c r="K80" s="108"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="109"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="J81" s="107"/>
-      <c r="K81" s="108"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="109"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="J82" s="107"/>
-      <c r="K82" s="108"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="109"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="J83" s="107"/>
-      <c r="K83" s="108"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="109"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="J84" s="107"/>
-      <c r="K84" s="108"/>
+      <c r="J84" s="108"/>
+      <c r="K84" s="109"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="J85" s="107"/>
-      <c r="K85" s="108"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="109"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="J86" s="107"/>
-      <c r="K86" s="108"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="109"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="J87" s="107"/>
-      <c r="K87" s="108"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="109"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="J88" s="107"/>
-      <c r="K88" s="108"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="109"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="J89" s="107"/>
-      <c r="K89" s="108"/>
+      <c r="J89" s="108"/>
+      <c r="K89" s="109"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="J90" s="107"/>
-      <c r="K90" s="108"/>
+      <c r="J90" s="108"/>
+      <c r="K90" s="109"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="J91" s="107"/>
-      <c r="K91" s="108"/>
+      <c r="J91" s="108"/>
+      <c r="K91" s="109"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="J92" s="107"/>
-      <c r="K92" s="108"/>
+      <c r="J92" s="108"/>
+      <c r="K92" s="109"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="J93" s="107"/>
-      <c r="K93" s="108"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="109"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="J94" s="107"/>
-      <c r="K94" s="108"/>
+      <c r="J94" s="108"/>
+      <c r="K94" s="109"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="J95" s="107"/>
-      <c r="K95" s="108"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="109"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="J96" s="107"/>
-      <c r="K96" s="108"/>
+      <c r="J96" s="108"/>
+      <c r="K96" s="109"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="J97" s="107"/>
-      <c r="K97" s="108"/>
+      <c r="J97" s="108"/>
+      <c r="K97" s="109"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="J98" s="107"/>
-      <c r="K98" s="108"/>
+      <c r="J98" s="108"/>
+      <c r="K98" s="109"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="J99" s="107"/>
-      <c r="K99" s="108"/>
+      <c r="J99" s="108"/>
+      <c r="K99" s="109"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="J100" s="107"/>
-      <c r="K100" s="108"/>
+      <c r="J100" s="108"/>
+      <c r="K100" s="109"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="J101" s="107"/>
-      <c r="K101" s="108"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="109"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="J102" s="107"/>
-      <c r="K102" s="108"/>
+      <c r="J102" s="108"/>
+      <c r="K102" s="109"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="J103" s="107"/>
-      <c r="K103" s="108"/>
+      <c r="J103" s="108"/>
+      <c r="K103" s="109"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="J104" s="107"/>
-      <c r="K104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="109"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="J105" s="107"/>
-      <c r="K105" s="108"/>
+      <c r="J105" s="108"/>
+      <c r="K105" s="109"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="J106" s="107"/>
-      <c r="K106" s="108"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="109"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="J107" s="107"/>
-      <c r="K107" s="108"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="109"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="J108" s="107"/>
-      <c r="K108" s="108"/>
+      <c r="J108" s="108"/>
+      <c r="K108" s="109"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="J109" s="107"/>
-      <c r="K109" s="108"/>
+      <c r="J109" s="108"/>
+      <c r="K109" s="109"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="J110" s="107"/>
-      <c r="K110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="109"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="J111" s="107"/>
-      <c r="K111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="109"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="J112" s="107"/>
-      <c r="K112" s="108"/>
+      <c r="J112" s="108"/>
+      <c r="K112" s="109"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="J113" s="107"/>
-      <c r="K113" s="108"/>
+      <c r="J113" s="108"/>
+      <c r="K113" s="109"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="J114" s="107"/>
-      <c r="K114" s="108"/>
+      <c r="J114" s="108"/>
+      <c r="K114" s="109"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="J115" s="107"/>
-      <c r="K115" s="108"/>
+      <c r="J115" s="108"/>
+      <c r="K115" s="109"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="J116" s="107"/>
-      <c r="K116" s="108"/>
+      <c r="J116" s="108"/>
+      <c r="K116" s="109"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="J117" s="107"/>
-      <c r="K117" s="108"/>
+      <c r="J117" s="108"/>
+      <c r="K117" s="109"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="J118" s="107"/>
-      <c r="K118" s="108"/>
+      <c r="J118" s="108"/>
+      <c r="K118" s="109"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="J119" s="107"/>
-      <c r="K119" s="108"/>
+      <c r="J119" s="108"/>
+      <c r="K119" s="109"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="J120" s="107"/>
-      <c r="K120" s="108"/>
+      <c r="J120" s="108"/>
+      <c r="K120" s="109"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="J121" s="107"/>
-      <c r="K121" s="108"/>
+      <c r="J121" s="108"/>
+      <c r="K121" s="109"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="J122" s="107"/>
-      <c r="K122" s="108"/>
+      <c r="J122" s="108"/>
+      <c r="K122" s="109"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="J123" s="107"/>
-      <c r="K123" s="108"/>
+      <c r="J123" s="108"/>
+      <c r="K123" s="109"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="J124" s="107"/>
-      <c r="K124" s="108"/>
+      <c r="J124" s="108"/>
+      <c r="K124" s="109"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="J125" s="107"/>
-      <c r="K125" s="108"/>
+      <c r="J125" s="108"/>
+      <c r="K125" s="109"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="J126" s="107"/>
-      <c r="K126" s="108"/>
+      <c r="J126" s="108"/>
+      <c r="K126" s="109"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="J127" s="107"/>
-      <c r="K127" s="108"/>
+      <c r="J127" s="108"/>
+      <c r="K127" s="109"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="J128" s="107"/>
-      <c r="K128" s="108"/>
+      <c r="J128" s="108"/>
+      <c r="K128" s="109"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="J129" s="107"/>
-      <c r="K129" s="108"/>
+      <c r="J129" s="108"/>
+      <c r="K129" s="109"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="J130" s="107"/>
-      <c r="K130" s="108"/>
+      <c r="J130" s="108"/>
+      <c r="K130" s="109"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="J131" s="107"/>
-      <c r="K131" s="108"/>
+      <c r="J131" s="108"/>
+      <c r="K131" s="109"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="J132" s="107"/>
-      <c r="K132" s="108"/>
+      <c r="J132" s="108"/>
+      <c r="K132" s="109"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="J133" s="107"/>
-      <c r="K133" s="108"/>
+      <c r="J133" s="108"/>
+      <c r="K133" s="109"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="J134" s="107"/>
-      <c r="K134" s="108"/>
+      <c r="J134" s="108"/>
+      <c r="K134" s="109"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="J135" s="107"/>
-      <c r="K135" s="108"/>
+      <c r="J135" s="108"/>
+      <c r="K135" s="109"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="J136" s="107"/>
-      <c r="K136" s="108"/>
+      <c r="J136" s="108"/>
+      <c r="K136" s="109"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="J137" s="107"/>
-      <c r="K137" s="108"/>
+      <c r="J137" s="108"/>
+      <c r="K137" s="109"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="J138" s="107"/>
-      <c r="K138" s="108"/>
+      <c r="J138" s="108"/>
+      <c r="K138" s="109"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="J139" s="107"/>
-      <c r="K139" s="108"/>
+      <c r="J139" s="108"/>
+      <c r="K139" s="109"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="J140" s="107"/>
-      <c r="K140" s="108"/>
+      <c r="J140" s="108"/>
+      <c r="K140" s="109"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="J141" s="107"/>
-      <c r="K141" s="108"/>
+      <c r="J141" s="108"/>
+      <c r="K141" s="109"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="J142" s="107"/>
-      <c r="K142" s="108"/>
+      <c r="J142" s="108"/>
+      <c r="K142" s="109"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="J143" s="107"/>
-      <c r="K143" s="108"/>
+      <c r="J143" s="108"/>
+      <c r="K143" s="109"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="J144" s="107"/>
-      <c r="K144" s="108"/>
+      <c r="J144" s="108"/>
+      <c r="K144" s="109"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="J145" s="107"/>
-      <c r="K145" s="108"/>
+      <c r="J145" s="108"/>
+      <c r="K145" s="109"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="J146" s="107"/>
-      <c r="K146" s="108"/>
+      <c r="J146" s="108"/>
+      <c r="K146" s="109"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="J147" s="107"/>
-      <c r="K147" s="108"/>
+      <c r="J147" s="108"/>
+      <c r="K147" s="109"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="J148" s="107"/>
-      <c r="K148" s="108"/>
+      <c r="J148" s="108"/>
+      <c r="K148" s="109"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="J149" s="107"/>
-      <c r="K149" s="108"/>
+      <c r="J149" s="108"/>
+      <c r="K149" s="109"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="J150" s="107"/>
-      <c r="K150" s="108"/>
+      <c r="J150" s="108"/>
+      <c r="K150" s="109"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="J151" s="107"/>
-      <c r="K151" s="108"/>
+      <c r="J151" s="108"/>
+      <c r="K151" s="109"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="J152" s="107"/>
-      <c r="K152" s="108"/>
+      <c r="J152" s="108"/>
+      <c r="K152" s="109"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="J153" s="107"/>
-      <c r="K153" s="108"/>
+      <c r="J153" s="108"/>
+      <c r="K153" s="109"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="J154" s="107"/>
-      <c r="K154" s="108"/>
+      <c r="J154" s="108"/>
+      <c r="K154" s="109"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="J155" s="107"/>
-      <c r="K155" s="108"/>
+      <c r="J155" s="108"/>
+      <c r="K155" s="109"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="J156" s="107"/>
-      <c r="K156" s="108"/>
+      <c r="J156" s="108"/>
+      <c r="K156" s="109"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="J157" s="107"/>
-      <c r="K157" s="108"/>
+      <c r="J157" s="108"/>
+      <c r="K157" s="109"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="J158" s="107"/>
-      <c r="K158" s="108"/>
+      <c r="J158" s="108"/>
+      <c r="K158" s="109"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="J159" s="107"/>
-      <c r="K159" s="108"/>
+      <c r="J159" s="108"/>
+      <c r="K159" s="109"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="J160" s="107"/>
-      <c r="K160" s="108"/>
+      <c r="J160" s="108"/>
+      <c r="K160" s="109"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="J161" s="107"/>
-      <c r="K161" s="108"/>
+      <c r="J161" s="108"/>
+      <c r="K161" s="109"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="J162" s="107"/>
-      <c r="K162" s="108"/>
+      <c r="J162" s="108"/>
+      <c r="K162" s="109"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="J163" s="107"/>
-      <c r="K163" s="108"/>
+      <c r="J163" s="108"/>
+      <c r="K163" s="109"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="J164" s="107"/>
-      <c r="K164" s="108"/>
+      <c r="J164" s="108"/>
+      <c r="K164" s="109"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="J165" s="107"/>
-      <c r="K165" s="108"/>
+      <c r="J165" s="108"/>
+      <c r="K165" s="109"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="J166" s="107"/>
-      <c r="K166" s="108"/>
+      <c r="J166" s="108"/>
+      <c r="K166" s="109"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="J167" s="107"/>
-      <c r="K167" s="108"/>
+      <c r="J167" s="108"/>
+      <c r="K167" s="109"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="J168" s="107"/>
-      <c r="K168" s="108"/>
+      <c r="J168" s="108"/>
+      <c r="K168" s="109"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="J169" s="107"/>
-      <c r="K169" s="108"/>
+      <c r="J169" s="108"/>
+      <c r="K169" s="109"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="J170" s="107"/>
-      <c r="K170" s="108"/>
+      <c r="J170" s="108"/>
+      <c r="K170" s="109"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="J171" s="107"/>
-      <c r="K171" s="108"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="109"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="J172" s="107"/>
-      <c r="K172" s="108"/>
+      <c r="J172" s="108"/>
+      <c r="K172" s="109"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="J173" s="107"/>
-      <c r="K173" s="108"/>
+      <c r="J173" s="108"/>
+      <c r="K173" s="109"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="J174" s="107"/>
-      <c r="K174" s="108"/>
+      <c r="J174" s="108"/>
+      <c r="K174" s="109"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="J175" s="107"/>
-      <c r="K175" s="108"/>
+      <c r="J175" s="108"/>
+      <c r="K175" s="109"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="J176" s="107"/>
-      <c r="K176" s="108"/>
+      <c r="J176" s="108"/>
+      <c r="K176" s="109"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="J177" s="107"/>
-      <c r="K177" s="108"/>
+      <c r="J177" s="108"/>
+      <c r="K177" s="109"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="J178" s="107"/>
-      <c r="K178" s="108"/>
+      <c r="J178" s="108"/>
+      <c r="K178" s="109"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="J179" s="107"/>
-      <c r="K179" s="108"/>
+      <c r="J179" s="108"/>
+      <c r="K179" s="109"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="J180" s="107"/>
-      <c r="K180" s="108"/>
+      <c r="J180" s="108"/>
+      <c r="K180" s="109"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="J181" s="107"/>
-      <c r="K181" s="108"/>
+      <c r="J181" s="108"/>
+      <c r="K181" s="109"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="J182" s="107"/>
-      <c r="K182" s="108"/>
+      <c r="J182" s="108"/>
+      <c r="K182" s="109"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="J183" s="107"/>
-      <c r="K183" s="108"/>
+      <c r="J183" s="108"/>
+      <c r="K183" s="109"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="J184" s="107"/>
-      <c r="K184" s="108"/>
+      <c r="J184" s="108"/>
+      <c r="K184" s="109"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="J185" s="107"/>
-      <c r="K185" s="108"/>
+      <c r="J185" s="108"/>
+      <c r="K185" s="109"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="J186" s="107"/>
-      <c r="K186" s="108"/>
+      <c r="J186" s="108"/>
+      <c r="K186" s="109"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="J187" s="107"/>
-      <c r="K187" s="108"/>
+      <c r="J187" s="108"/>
+      <c r="K187" s="109"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="J188" s="107"/>
-      <c r="K188" s="108"/>
+      <c r="J188" s="108"/>
+      <c r="K188" s="109"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="J189" s="107"/>
-      <c r="K189" s="108"/>
+      <c r="J189" s="108"/>
+      <c r="K189" s="109"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="J190" s="107"/>
-      <c r="K190" s="108"/>
+      <c r="J190" s="108"/>
+      <c r="K190" s="109"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="J191" s="107"/>
-      <c r="K191" s="108"/>
+      <c r="J191" s="108"/>
+      <c r="K191" s="109"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="J192" s="107"/>
-      <c r="K192" s="108"/>
+      <c r="J192" s="108"/>
+      <c r="K192" s="109"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="J193" s="107"/>
-      <c r="K193" s="108"/>
+      <c r="J193" s="108"/>
+      <c r="K193" s="109"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="J194" s="107"/>
-      <c r="K194" s="108"/>
+      <c r="J194" s="108"/>
+      <c r="K194" s="109"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="J195" s="107"/>
-      <c r="K195" s="108"/>
+      <c r="J195" s="108"/>
+      <c r="K195" s="109"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="J196" s="107"/>
-      <c r="K196" s="108"/>
+      <c r="J196" s="108"/>
+      <c r="K196" s="109"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="J197" s="107"/>
-      <c r="K197" s="108"/>
+      <c r="J197" s="108"/>
+      <c r="K197" s="109"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="J198" s="107"/>
-      <c r="K198" s="108"/>
+      <c r="J198" s="108"/>
+      <c r="K198" s="109"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="J199" s="107"/>
-      <c r="K199" s="108"/>
+      <c r="J199" s="108"/>
+      <c r="K199" s="109"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="J200" s="107"/>
-      <c r="K200" s="108"/>
+      <c r="J200" s="108"/>
+      <c r="K200" s="109"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="J201" s="107"/>
-      <c r="K201" s="108"/>
+      <c r="J201" s="108"/>
+      <c r="K201" s="109"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="J202" s="107"/>
-      <c r="K202" s="108"/>
+      <c r="J202" s="108"/>
+      <c r="K202" s="109"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="J203" s="107"/>
-      <c r="K203" s="108"/>
+      <c r="J203" s="108"/>
+      <c r="K203" s="109"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="J204" s="107"/>
-      <c r="K204" s="108"/>
+      <c r="J204" s="108"/>
+      <c r="K204" s="109"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="J205" s="107"/>
-      <c r="K205" s="108"/>
+      <c r="J205" s="108"/>
+      <c r="K205" s="109"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="J206" s="107"/>
-      <c r="K206" s="108"/>
+      <c r="J206" s="108"/>
+      <c r="K206" s="109"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="J207" s="107"/>
-      <c r="K207" s="108"/>
+      <c r="J207" s="108"/>
+      <c r="K207" s="109"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="J208" s="107"/>
-      <c r="K208" s="108"/>
+      <c r="J208" s="108"/>
+      <c r="K208" s="109"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="J209" s="107"/>
-      <c r="K209" s="108"/>
+      <c r="J209" s="108"/>
+      <c r="K209" s="109"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="J210" s="107"/>
-      <c r="K210" s="108"/>
+      <c r="J210" s="108"/>
+      <c r="K210" s="109"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="J211" s="107"/>
-      <c r="K211" s="108"/>
+      <c r="J211" s="108"/>
+      <c r="K211" s="109"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="J212" s="107"/>
-      <c r="K212" s="108"/>
+      <c r="J212" s="108"/>
+      <c r="K212" s="109"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="J213" s="107"/>
-      <c r="K213" s="108"/>
+      <c r="J213" s="108"/>
+      <c r="K213" s="109"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="J214" s="107"/>
-      <c r="K214" s="108"/>
+      <c r="J214" s="108"/>
+      <c r="K214" s="109"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="J215" s="107"/>
-      <c r="K215" s="108"/>
+      <c r="J215" s="108"/>
+      <c r="K215" s="109"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="J216" s="107"/>
-      <c r="K216" s="108"/>
+      <c r="J216" s="108"/>
+      <c r="K216" s="109"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="J217" s="107"/>
-      <c r="K217" s="108"/>
+      <c r="J217" s="108"/>
+      <c r="K217" s="109"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="J218" s="107"/>
-      <c r="K218" s="108"/>
+      <c r="J218" s="108"/>
+      <c r="K218" s="109"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="J219" s="107"/>
-      <c r="K219" s="108"/>
+      <c r="J219" s="108"/>
+      <c r="K219" s="109"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="J220" s="107"/>
-      <c r="K220" s="108"/>
+      <c r="J220" s="108"/>
+      <c r="K220" s="109"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="J221" s="107"/>
-      <c r="K221" s="108"/>
+      <c r="J221" s="108"/>
+      <c r="K221" s="109"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="J222" s="107"/>
-      <c r="K222" s="108"/>
+      <c r="J222" s="108"/>
+      <c r="K222" s="109"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="J223" s="107"/>
-      <c r="K223" s="108"/>
+      <c r="J223" s="108"/>
+      <c r="K223" s="109"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="J224" s="107"/>
-      <c r="K224" s="108"/>
+      <c r="J224" s="108"/>
+      <c r="K224" s="109"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="J225" s="107"/>
-      <c r="K225" s="108"/>
+      <c r="J225" s="108"/>
+      <c r="K225" s="109"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="J226" s="107"/>
-      <c r="K226" s="108"/>
+      <c r="J226" s="108"/>
+      <c r="K226" s="109"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="J227" s="107"/>
-      <c r="K227" s="108"/>
+      <c r="J227" s="108"/>
+      <c r="K227" s="109"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="J228" s="107"/>
-      <c r="K228" s="108"/>
+      <c r="J228" s="108"/>
+      <c r="K228" s="109"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="J229" s="107"/>
-      <c r="K229" s="108"/>
+      <c r="J229" s="108"/>
+      <c r="K229" s="109"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="J230" s="107"/>
-      <c r="K230" s="108"/>
+      <c r="J230" s="108"/>
+      <c r="K230" s="109"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="J231" s="107"/>
-      <c r="K231" s="108"/>
+      <c r="J231" s="108"/>
+      <c r="K231" s="109"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="J232" s="107"/>
-      <c r="K232" s="108"/>
+      <c r="J232" s="108"/>
+      <c r="K232" s="109"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="J233" s="107"/>
-      <c r="K233" s="108"/>
+      <c r="J233" s="108"/>
+      <c r="K233" s="109"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="J234" s="107"/>
-      <c r="K234" s="108"/>
+      <c r="J234" s="108"/>
+      <c r="K234" s="109"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="J235" s="107"/>
-      <c r="K235" s="108"/>
+      <c r="J235" s="108"/>
+      <c r="K235" s="109"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="J236" s="107"/>
-      <c r="K236" s="108"/>
+      <c r="J236" s="108"/>
+      <c r="K236" s="109"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="J237" s="107"/>
-      <c r="K237" s="108"/>
+      <c r="J237" s="108"/>
+      <c r="K237" s="109"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="J238" s="107"/>
-      <c r="K238" s="108"/>
+      <c r="J238" s="108"/>
+      <c r="K238" s="109"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="J239" s="107"/>
-      <c r="K239" s="108"/>
+      <c r="J239" s="108"/>
+      <c r="K239" s="109"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="J240" s="107"/>
-      <c r="K240" s="108"/>
+      <c r="J240" s="108"/>
+      <c r="K240" s="109"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="J241" s="107"/>
-      <c r="K241" s="108"/>
+      <c r="J241" s="108"/>
+      <c r="K241" s="109"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="J242" s="107"/>
-      <c r="K242" s="108"/>
+      <c r="J242" s="108"/>
+      <c r="K242" s="109"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="J243" s="107"/>
-      <c r="K243" s="108"/>
+      <c r="J243" s="108"/>
+      <c r="K243" s="109"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="J244" s="107"/>
-      <c r="K244" s="108"/>
+      <c r="J244" s="108"/>
+      <c r="K244" s="109"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="J245" s="107"/>
-      <c r="K245" s="108"/>
+      <c r="J245" s="108"/>
+      <c r="K245" s="109"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="J246" s="107"/>
-      <c r="K246" s="108"/>
+      <c r="J246" s="108"/>
+      <c r="K246" s="109"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="J247" s="107"/>
-      <c r="K247" s="108"/>
+      <c r="J247" s="108"/>
+      <c r="K247" s="109"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="J248" s="107"/>
-      <c r="K248" s="108"/>
+      <c r="J248" s="108"/>
+      <c r="K248" s="109"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="J249" s="107"/>
-      <c r="K249" s="108"/>
+      <c r="J249" s="108"/>
+      <c r="K249" s="109"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="J250" s="107"/>
-      <c r="K250" s="108"/>
+      <c r="J250" s="108"/>
+      <c r="K250" s="109"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="J251" s="107"/>
-      <c r="K251" s="108"/>
+      <c r="J251" s="108"/>
+      <c r="K251" s="109"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="J252" s="107"/>
-      <c r="K252" s="108"/>
+      <c r="J252" s="108"/>
+      <c r="K252" s="109"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="J253" s="107"/>
-      <c r="K253" s="108"/>
+      <c r="J253" s="108"/>
+      <c r="K253" s="109"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="J254" s="107"/>
-      <c r="K254" s="108"/>
+      <c r="J254" s="108"/>
+      <c r="K254" s="109"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="J255" s="107"/>
-      <c r="K255" s="108"/>
+      <c r="J255" s="108"/>
+      <c r="K255" s="109"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="J256" s="107"/>
-      <c r="K256" s="108"/>
+      <c r="J256" s="108"/>
+      <c r="K256" s="109"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="J257" s="107"/>
-      <c r="K257" s="108"/>
+      <c r="J257" s="108"/>
+      <c r="K257" s="109"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="J258" s="107"/>
-      <c r="K258" s="108"/>
+      <c r="J258" s="108"/>
+      <c r="K258" s="109"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="J259" s="107"/>
-      <c r="K259" s="108"/>
+      <c r="J259" s="108"/>
+      <c r="K259" s="109"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="J260" s="107"/>
-      <c r="K260" s="108"/>
+      <c r="J260" s="108"/>
+      <c r="K260" s="109"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="J261" s="107"/>
-      <c r="K261" s="108"/>
+      <c r="J261" s="108"/>
+      <c r="K261" s="109"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="J262" s="107"/>
-      <c r="K262" s="108"/>
+      <c r="J262" s="108"/>
+      <c r="K262" s="109"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="J263" s="107"/>
-      <c r="K263" s="108"/>
+      <c r="J263" s="108"/>
+      <c r="K263" s="109"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="J264" s="107"/>
-      <c r="K264" s="108"/>
+      <c r="J264" s="108"/>
+      <c r="K264" s="109"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="J265" s="107"/>
-      <c r="K265" s="108"/>
+      <c r="J265" s="108"/>
+      <c r="K265" s="109"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="J266" s="107"/>
-      <c r="K266" s="108"/>
+      <c r="J266" s="108"/>
+      <c r="K266" s="109"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="J267" s="107"/>
-      <c r="K267" s="108"/>
+      <c r="J267" s="108"/>
+      <c r="K267" s="109"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="J268" s="107"/>
-      <c r="K268" s="108"/>
+      <c r="J268" s="108"/>
+      <c r="K268" s="109"/>
     </row>
     <row r="269" ht="15.75" customHeight="1"/>
     <row r="270" ht="15.75" customHeight="1"/>

--- a/data/phase2/Roster of phase 2 stages (descriptive survey take 1)_v2.xlsx
+++ b/data/phase2/Roster of phase 2 stages (descriptive survey take 1)_v2.xlsx
@@ -2819,7 +2819,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3063,6 +3063,9 @@
     </xf>
     <xf borderId="2" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -14272,8 +14275,8 @@
       <c r="P63" s="63">
         <v>13.581307</v>
       </c>
-      <c r="Q63" s="63">
-        <v>2250.0</v>
+      <c r="Q63" s="104">
+        <v>3000.0</v>
       </c>
       <c r="R63" s="62" t="s">
         <v>569</v>
@@ -14328,8 +14331,8 @@
       <c r="P64" s="63">
         <v>13.581307</v>
       </c>
-      <c r="Q64" s="63">
-        <v>3000.0</v>
+      <c r="Q64" s="104">
+        <v>2500.0</v>
       </c>
       <c r="R64" s="66"/>
     </row>
@@ -14379,7 +14382,7 @@
         <v>13.581307</v>
       </c>
       <c r="Q65" s="63">
-        <v>2250.0</v>
+        <v>3000.0</v>
       </c>
       <c r="R65" s="62" t="s">
         <v>569</v>
@@ -14434,8 +14437,8 @@
       <c r="P66" s="68">
         <v>13.581307</v>
       </c>
-      <c r="Q66" s="68">
-        <v>3000.0</v>
+      <c r="Q66" s="72">
+        <v>2000.0</v>
       </c>
       <c r="R66" s="66"/>
     </row>
@@ -32820,4204 +32823,4204 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="105" t="s">
         <v>627</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="104" t="s">
+      <c r="N1" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="104" t="s">
+      <c r="O1" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="107" t="s">
+      <c r="P1" s="108" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="104">
+      <c r="C2" s="105">
         <v>12.0</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L2" s="104">
+      <c r="L2" s="105">
         <v>1.0</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="110">
+      <c r="N2" s="111">
         <v>40.2745501</v>
       </c>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="104">
+      <c r="P2" s="105">
         <v>5000.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="105">
         <v>12.0</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="105" t="s">
         <v>436</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="105" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L3" s="104">
+      <c r="L3" s="105">
         <v>1.0</v>
       </c>
-      <c r="M3" s="104" t="s">
+      <c r="M3" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="110">
+      <c r="N3" s="111">
         <v>40.2745501</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="104">
+      <c r="P3" s="105">
         <v>4000.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="105">
         <v>13.0</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L4" s="104">
+      <c r="L4" s="105">
         <v>0.0</v>
       </c>
-      <c r="M4" s="104" t="s">
+      <c r="M4" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="N4" s="110">
+      <c r="N4" s="111">
         <v>10.049094</v>
       </c>
-      <c r="O4" s="104">
+      <c r="O4" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P4" s="104">
+      <c r="P4" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="105">
         <v>13.0</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="108" t="s">
+      <c r="J5" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L5" s="104">
+      <c r="L5" s="105">
         <v>1.0</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="110">
+      <c r="N5" s="111">
         <v>10.049094</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P5" s="104">
+      <c r="P5" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="105">
         <v>13.0</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="105" t="s">
         <v>449</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="105" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="104" t="s">
+      <c r="H6" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="J6" s="108" t="s">
+      <c r="J6" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L6" s="104">
+      <c r="L6" s="105">
         <v>0.0</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="N6" s="110">
+      <c r="N6" s="111">
         <v>10.049094</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P6" s="104">
+      <c r="P6" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="105">
         <v>13.0</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="105" t="s">
         <v>451</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="105" t="s">
         <v>452</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="J7" s="108" t="s">
+      <c r="J7" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L7" s="104">
+      <c r="L7" s="105">
         <v>1.0</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="N7" s="110">
+      <c r="N7" s="111">
         <v>10.049094</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P7" s="104">
+      <c r="P7" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="105">
         <v>14.0</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="105" t="s">
         <v>454</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="105">
         <v>1.0</v>
       </c>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="110">
+      <c r="N8" s="111">
         <v>8.82092796</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="104">
+      <c r="P8" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="105">
         <v>14.0</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="L9" s="104">
+      <c r="L9" s="105">
         <v>1.0</v>
       </c>
-      <c r="M9" s="104" t="s">
+      <c r="M9" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="110">
+      <c r="N9" s="111">
         <v>8.82092796</v>
       </c>
-      <c r="O9" s="104" t="s">
+      <c r="O9" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="P9" s="104">
+      <c r="P9" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="105">
         <v>15.0</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="105" t="s">
         <v>464</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K10" s="109" t="s">
+      <c r="K10" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L10" s="104">
+      <c r="L10" s="105">
         <v>1.0</v>
       </c>
-      <c r="M10" s="104" t="s">
+      <c r="M10" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="N10" s="110">
+      <c r="N10" s="111">
         <v>12.0733898</v>
       </c>
-      <c r="O10" s="104">
+      <c r="O10" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P10" s="104">
+      <c r="P10" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="105">
         <v>17.0</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="105" t="s">
         <v>466</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="H11" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K11" s="109" t="s">
+      <c r="K11" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="105">
         <v>1.0</v>
       </c>
-      <c r="M11" s="104" t="s">
+      <c r="M11" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="N11" s="110">
+      <c r="N11" s="111">
         <v>23.0839328</v>
       </c>
-      <c r="O11" s="104">
+      <c r="O11" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P11" s="104">
+      <c r="P11" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="105">
         <v>17.0</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K12" s="109" t="s">
+      <c r="K12" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L12" s="104">
+      <c r="L12" s="105">
         <v>1.0</v>
       </c>
-      <c r="M12" s="104" t="s">
+      <c r="M12" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="N12" s="110">
+      <c r="N12" s="111">
         <v>23.0839328</v>
       </c>
-      <c r="O12" s="104">
+      <c r="O12" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P12" s="104">
+      <c r="P12" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="105">
         <v>17.0</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="105" t="s">
         <v>471</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="105" t="s">
         <v>472</v>
       </c>
-      <c r="H13" s="104" t="s">
+      <c r="H13" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="105">
         <v>1.0</v>
       </c>
-      <c r="M13" s="104" t="s">
+      <c r="M13" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="N13" s="110">
+      <c r="N13" s="111">
         <v>23.0839328</v>
       </c>
-      <c r="O13" s="104">
+      <c r="O13" s="105">
         <v>3000.0</v>
       </c>
-      <c r="P13" s="104">
+      <c r="P13" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="105">
         <v>18.0</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="105" t="s">
         <v>474</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="H14" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="I14" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K14" s="109" t="s">
+      <c r="K14" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="105">
         <v>1.0</v>
       </c>
-      <c r="M14" s="104" t="s">
+      <c r="M14" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="N14" s="110">
+      <c r="N14" s="111">
         <v>55.0175743</v>
       </c>
-      <c r="O14" s="104">
+      <c r="O14" s="105">
         <v>4000.0</v>
       </c>
-      <c r="P14" s="104">
+      <c r="P14" s="105">
         <v>4000.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="105">
         <v>19.0</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="105" t="s">
         <v>476</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="105">
         <v>1.0</v>
       </c>
-      <c r="M15" s="104" t="s">
+      <c r="M15" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="N15" s="110">
+      <c r="N15" s="111">
         <v>18.229571</v>
       </c>
-      <c r="O15" s="104">
+      <c r="O15" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P15" s="104">
+      <c r="P15" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="105">
         <v>19.0</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="105" t="s">
         <v>479</v>
       </c>
-      <c r="H16" s="104" t="s">
+      <c r="H16" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="104" t="s">
+      <c r="I16" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="J16" s="108" t="s">
+      <c r="J16" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K16" s="109" t="s">
+      <c r="K16" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L16" s="104">
+      <c r="L16" s="105">
         <v>0.0</v>
       </c>
-      <c r="M16" s="104" t="s">
+      <c r="M16" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="N16" s="110">
+      <c r="N16" s="111">
         <v>18.229571</v>
       </c>
-      <c r="O16" s="104">
+      <c r="O16" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P16" s="104">
+      <c r="P16" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="105">
         <v>19.0</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="105" t="s">
         <v>480</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="105" t="s">
         <v>481</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="H17" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K17" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="105">
         <v>0.0</v>
       </c>
-      <c r="M17" s="104" t="s">
+      <c r="M17" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="N17" s="110">
+      <c r="N17" s="111">
         <v>18.229571</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P17" s="104">
+      <c r="P17" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="105">
         <v>19.0</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G18" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I18" s="104" t="s">
+      <c r="I18" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="105">
         <v>0.0</v>
       </c>
-      <c r="M18" s="104" t="s">
+      <c r="M18" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="N18" s="110">
+      <c r="N18" s="111">
         <v>18.229571</v>
       </c>
-      <c r="O18" s="104">
+      <c r="O18" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P18" s="104">
+      <c r="P18" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="105">
         <v>19.0</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="105" t="s">
         <v>484</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="H19" s="104" t="s">
+      <c r="H19" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="104" t="s">
+      <c r="I19" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="J19" s="108" t="s">
+      <c r="J19" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K19" s="109" t="s">
+      <c r="K19" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L19" s="104">
+      <c r="L19" s="105">
         <v>0.0</v>
       </c>
-      <c r="M19" s="104" t="s">
+      <c r="M19" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="N19" s="110">
+      <c r="N19" s="111">
         <v>18.229571</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P19" s="104">
+      <c r="P19" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="105">
         <v>19.0</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="105" t="s">
         <v>486</v>
       </c>
-      <c r="G20" s="104" t="s">
+      <c r="G20" s="105" t="s">
         <v>487</v>
       </c>
-      <c r="H20" s="104" t="s">
+      <c r="H20" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="J20" s="108" t="s">
+      <c r="J20" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K20" s="109" t="s">
+      <c r="K20" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="105">
         <v>0.0</v>
       </c>
-      <c r="M20" s="104" t="s">
+      <c r="M20" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="N20" s="110">
+      <c r="N20" s="111">
         <v>18.229571</v>
       </c>
-      <c r="O20" s="104">
+      <c r="O20" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P20" s="104">
+      <c r="P20" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="105">
         <v>22.0</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="105" t="s">
         <v>488</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="112" t="s">
         <v>489</v>
       </c>
-      <c r="H21" s="104" t="s">
+      <c r="H21" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="I21" s="104" t="s">
+      <c r="I21" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="112" t="s">
+      <c r="J21" s="113" t="s">
         <v>490</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="114" t="s">
         <v>490</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="105">
         <v>0.0</v>
       </c>
-      <c r="M21" s="104" t="s">
+      <c r="M21" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="N21" s="110">
+      <c r="N21" s="111">
         <v>7.96380922</v>
       </c>
-      <c r="O21" s="104">
+      <c r="O21" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P21" s="104">
+      <c r="P21" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="105">
         <v>22.0</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="105" t="s">
         <v>492</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="H22" s="104" t="s">
+      <c r="H22" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="104" t="s">
+      <c r="I22" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="108" t="s">
+      <c r="J22" s="109" t="s">
         <v>494</v>
       </c>
-      <c r="K22" s="109" t="s">
+      <c r="K22" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="L22" s="104">
+      <c r="L22" s="105">
         <v>1.0</v>
       </c>
-      <c r="M22" s="104" t="s">
+      <c r="M22" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="N22" s="110">
+      <c r="N22" s="111">
         <v>7.96380922</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P22" s="104">
+      <c r="P22" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="105">
         <v>22.0</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="104" t="s">
+      <c r="E23" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="105" t="s">
         <v>495</v>
       </c>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="H23" s="104" t="s">
+      <c r="H23" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="104" t="s">
+      <c r="I23" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="J23" s="108" t="s">
+      <c r="J23" s="109" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="109" t="s">
+      <c r="K23" s="110" t="s">
         <v>497</v>
       </c>
-      <c r="L23" s="104">
+      <c r="L23" s="105">
         <v>0.0</v>
       </c>
-      <c r="M23" s="104" t="s">
+      <c r="M23" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="N23" s="110">
+      <c r="N23" s="111">
         <v>7.96380922</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P23" s="104">
+      <c r="P23" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="105">
         <v>26.0</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="105" t="s">
         <v>498</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="H24" s="104" t="s">
+      <c r="H24" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="I24" s="104" t="s">
+      <c r="I24" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="108" t="s">
+      <c r="J24" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K24" s="109" t="s">
+      <c r="K24" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="L24" s="104">
+      <c r="L24" s="105">
         <v>1.0</v>
       </c>
-      <c r="M24" s="104" t="s">
+      <c r="M24" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="N24" s="110">
+      <c r="N24" s="111">
         <v>12.0048693</v>
       </c>
-      <c r="O24" s="104">
+      <c r="O24" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P24" s="104">
+      <c r="P24" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="105">
         <v>27.0</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="105" t="s">
         <v>500</v>
       </c>
-      <c r="G25" s="104" t="s">
+      <c r="G25" s="105" t="s">
         <v>501</v>
       </c>
-      <c r="H25" s="104" t="s">
+      <c r="H25" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="104" t="s">
+      <c r="I25" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="J25" s="108" t="s">
+      <c r="J25" s="109" t="s">
         <v>502</v>
       </c>
-      <c r="K25" s="109" t="s">
+      <c r="K25" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="L25" s="104">
+      <c r="L25" s="105">
         <v>1.0</v>
       </c>
-      <c r="M25" s="104" t="s">
+      <c r="M25" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="N25" s="110">
+      <c r="N25" s="111">
         <v>7.68518881</v>
       </c>
-      <c r="O25" s="104">
+      <c r="O25" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P25" s="104">
+      <c r="P25" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="105">
         <v>28.0</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="105" t="s">
         <v>503</v>
       </c>
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="105" t="s">
         <v>504</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="104" t="s">
+      <c r="I26" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J26" s="108" t="s">
+      <c r="J26" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="K26" s="109" t="s">
+      <c r="K26" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L26" s="104">
+      <c r="L26" s="105">
         <v>1.0</v>
       </c>
-      <c r="M26" s="104" t="s">
+      <c r="M26" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="N26" s="110">
+      <c r="N26" s="111">
         <v>13.8712444</v>
       </c>
-      <c r="O26" s="104">
+      <c r="O26" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P26" s="104">
+      <c r="P26" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="105">
         <v>28.0</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="105" t="s">
         <v>510</v>
       </c>
-      <c r="G27" s="104" t="s">
+      <c r="G27" s="105" t="s">
         <v>511</v>
       </c>
-      <c r="H27" s="104" t="s">
+      <c r="H27" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="104" t="s">
+      <c r="I27" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J27" s="108" t="s">
+      <c r="J27" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="K27" s="109" t="s">
+      <c r="K27" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L27" s="104">
+      <c r="L27" s="105">
         <v>1.0</v>
       </c>
-      <c r="M27" s="104" t="s">
+      <c r="M27" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="N27" s="110">
+      <c r="N27" s="111">
         <v>13.8712444</v>
       </c>
-      <c r="O27" s="104">
+      <c r="O27" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P27" s="104">
+      <c r="P27" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="105">
         <v>28.0</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="105" t="s">
         <v>514</v>
       </c>
-      <c r="H28" s="104" t="s">
+      <c r="H28" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="104" t="s">
+      <c r="I28" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="K28" s="109" t="s">
+      <c r="K28" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L28" s="104">
+      <c r="L28" s="105">
         <v>1.0</v>
       </c>
-      <c r="M28" s="104" t="s">
+      <c r="M28" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="N28" s="110">
+      <c r="N28" s="111">
         <v>13.8712444</v>
       </c>
-      <c r="O28" s="104">
+      <c r="O28" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P28" s="104">
+      <c r="P28" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="105">
         <v>28.0</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="G29" s="104" t="s">
+      <c r="G29" s="105" t="s">
         <v>517</v>
       </c>
-      <c r="H29" s="104" t="s">
+      <c r="H29" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="104" t="s">
+      <c r="I29" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="K29" s="109" t="s">
+      <c r="K29" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L29" s="104">
+      <c r="L29" s="105">
         <v>1.0</v>
       </c>
-      <c r="M29" s="104" t="s">
+      <c r="M29" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="N29" s="110">
+      <c r="N29" s="111">
         <v>13.8712444</v>
       </c>
-      <c r="O29" s="104">
+      <c r="O29" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P29" s="104">
+      <c r="P29" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="105">
         <v>28.0</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="104" t="s">
+      <c r="F30" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="H30" s="104" t="s">
+      <c r="H30" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="104" t="s">
+      <c r="I30" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="J30" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="K30" s="109" t="s">
+      <c r="K30" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L30" s="104">
+      <c r="L30" s="105">
         <v>1.0</v>
       </c>
-      <c r="M30" s="104" t="s">
+      <c r="M30" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="N30" s="110">
+      <c r="N30" s="111">
         <v>13.8712444</v>
       </c>
-      <c r="O30" s="104">
+      <c r="O30" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P30" s="104">
+      <c r="P30" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="105">
         <v>28.0</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="104" t="s">
+      <c r="F31" s="105" t="s">
         <v>524</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="H31" s="104" t="s">
+      <c r="H31" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="104" t="s">
+      <c r="I31" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="J31" s="108" t="s">
+      <c r="J31" s="109" t="s">
         <v>506</v>
       </c>
-      <c r="K31" s="109" t="s">
+      <c r="K31" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L31" s="104">
+      <c r="L31" s="105">
         <v>1.0</v>
       </c>
-      <c r="M31" s="104" t="s">
+      <c r="M31" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="N31" s="110">
+      <c r="N31" s="111">
         <v>13.8712444</v>
       </c>
-      <c r="O31" s="104">
+      <c r="O31" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P31" s="104">
+      <c r="P31" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="105">
         <v>30.0</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="105" t="s">
         <v>527</v>
       </c>
-      <c r="G32" s="104" t="s">
+      <c r="G32" s="105" t="s">
         <v>528</v>
       </c>
-      <c r="H32" s="104" t="s">
+      <c r="H32" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="I32" s="104" t="s">
+      <c r="I32" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K32" s="109" t="s">
+      <c r="K32" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L32" s="104">
+      <c r="L32" s="105">
         <v>1.0</v>
       </c>
-      <c r="M32" s="104" t="s">
+      <c r="M32" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="N32" s="110">
+      <c r="N32" s="111">
         <v>21.2486974</v>
       </c>
-      <c r="O32" s="104" t="s">
+      <c r="O32" s="105" t="s">
         <v>628</v>
       </c>
-      <c r="P32" s="104">
+      <c r="P32" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="105">
         <v>35.0</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="105" t="s">
         <v>529</v>
       </c>
-      <c r="G33" s="111" t="s">
+      <c r="G33" s="112" t="s">
         <v>530</v>
       </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="I33" s="111" t="s">
+      <c r="I33" s="112" t="s">
         <v>531</v>
       </c>
-      <c r="J33" s="115" t="s">
+      <c r="J33" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="K33" s="116" t="s">
+      <c r="K33" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="L33" s="104">
+      <c r="L33" s="105">
         <v>0.0</v>
       </c>
-      <c r="M33" s="104" t="s">
+      <c r="M33" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="N33" s="110">
+      <c r="N33" s="111">
         <v>20.3295363</v>
       </c>
-      <c r="O33" s="104" t="s">
+      <c r="O33" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="P33" s="104" t="s">
+      <c r="P33" s="105" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="105">
         <v>35.0</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F34" s="104" t="s">
+      <c r="F34" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="G34" s="104" t="s">
+      <c r="G34" s="105" t="s">
         <v>533</v>
       </c>
-      <c r="H34" s="104" t="s">
+      <c r="H34" s="105" t="s">
         <v>291</v>
       </c>
-      <c r="I34" s="104" t="s">
+      <c r="I34" s="105" t="s">
         <v>531</v>
       </c>
-      <c r="J34" s="117" t="s">
+      <c r="J34" s="118" t="s">
         <v>433</v>
       </c>
-      <c r="K34" s="118" t="s">
+      <c r="K34" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L34" s="104">
+      <c r="L34" s="105">
         <v>1.0</v>
       </c>
-      <c r="M34" s="104" t="s">
+      <c r="M34" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="110">
+      <c r="N34" s="111">
         <v>20.3295363</v>
       </c>
-      <c r="O34" s="104" t="s">
+      <c r="O34" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="P34" s="104">
+      <c r="P34" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="105">
         <v>35.0</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="105" t="s">
         <v>534</v>
       </c>
-      <c r="G35" s="104" t="s">
+      <c r="G35" s="105" t="s">
         <v>535</v>
       </c>
-      <c r="H35" s="111" t="s">
+      <c r="H35" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="I35" s="111" t="s">
+      <c r="I35" s="112" t="s">
         <v>531</v>
       </c>
-      <c r="J35" s="119" t="s">
+      <c r="J35" s="120" t="s">
         <v>497</v>
       </c>
-      <c r="K35" s="118" t="s">
+      <c r="K35" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L35" s="104">
+      <c r="L35" s="105">
         <v>1.0</v>
       </c>
-      <c r="M35" s="104" t="s">
+      <c r="M35" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="110">
+      <c r="N35" s="111">
         <v>20.3295363</v>
       </c>
-      <c r="O35" s="104" t="s">
+      <c r="O35" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="P35" s="104">
+      <c r="P35" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="105">
         <v>35.0</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="E36" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F36" s="104" t="s">
+      <c r="F36" s="105" t="s">
         <v>536</v>
       </c>
-      <c r="G36" s="111" t="s">
+      <c r="G36" s="112" t="s">
         <v>537</v>
       </c>
-      <c r="H36" s="111" t="s">
+      <c r="H36" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="I36" s="111" t="s">
+      <c r="I36" s="112" t="s">
         <v>531</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="116" t="s">
         <v>497</v>
       </c>
-      <c r="K36" s="116" t="s">
+      <c r="K36" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="L36" s="104">
+      <c r="L36" s="105">
         <v>0.0</v>
       </c>
-      <c r="M36" s="104" t="s">
+      <c r="M36" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="N36" s="110">
+      <c r="N36" s="111">
         <v>20.3295363</v>
       </c>
-      <c r="O36" s="104" t="s">
+      <c r="O36" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="P36" s="104">
+      <c r="P36" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="105">
         <v>40.0</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="G37" s="111" t="s">
+      <c r="G37" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="111" t="s">
+      <c r="I37" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="J37" s="112" t="s">
+      <c r="J37" s="113" t="s">
         <v>497</v>
       </c>
-      <c r="K37" s="116" t="s">
+      <c r="K37" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="L37" s="104">
+      <c r="L37" s="105">
         <v>0.0</v>
       </c>
-      <c r="M37" s="104" t="s">
+      <c r="M37" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="N37" s="110">
+      <c r="N37" s="111">
         <v>12.0323181</v>
       </c>
-      <c r="O37" s="104" t="s">
+      <c r="O37" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="P37" s="104">
+      <c r="P37" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="104">
+      <c r="C38" s="105">
         <v>40.0</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="H38" s="104" t="s">
+      <c r="H38" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="I38" s="104" t="s">
+      <c r="I38" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="J38" s="108" t="s">
+      <c r="J38" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K38" s="118" t="s">
+      <c r="K38" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L38" s="104">
+      <c r="L38" s="105">
         <v>1.0</v>
       </c>
-      <c r="M38" s="104" t="s">
+      <c r="M38" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="N38" s="110">
+      <c r="N38" s="111">
         <v>12.0323181</v>
       </c>
-      <c r="O38" s="104" t="s">
+      <c r="O38" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="P38" s="104">
+      <c r="P38" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="104">
+      <c r="C39" s="105">
         <v>40.0</v>
       </c>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="105" t="s">
         <v>544</v>
       </c>
-      <c r="G39" s="104" t="s">
+      <c r="G39" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="H39" s="104" t="s">
+      <c r="H39" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="I39" s="104" t="s">
+      <c r="I39" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="J39" s="108" t="s">
+      <c r="J39" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K39" s="118" t="s">
+      <c r="K39" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L39" s="104">
+      <c r="L39" s="105">
         <v>1.0</v>
       </c>
-      <c r="M39" s="104" t="s">
+      <c r="M39" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="N39" s="110">
+      <c r="N39" s="111">
         <v>12.0323181</v>
       </c>
-      <c r="O39" s="104" t="s">
+      <c r="O39" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="P39" s="104">
+      <c r="P39" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="104">
+      <c r="C40" s="105">
         <v>40.0</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F40" s="104" t="s">
+      <c r="F40" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="G40" s="104" t="s">
+      <c r="G40" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="H40" s="104" t="s">
+      <c r="H40" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="I40" s="104" t="s">
+      <c r="I40" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="J40" s="108" t="s">
+      <c r="J40" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K40" s="118" t="s">
+      <c r="K40" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L40" s="104">
+      <c r="L40" s="105">
         <v>1.0</v>
       </c>
-      <c r="M40" s="104" t="s">
+      <c r="M40" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="N40" s="110">
+      <c r="N40" s="111">
         <v>12.0323181</v>
       </c>
-      <c r="O40" s="104" t="s">
+      <c r="O40" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="P40" s="104">
+      <c r="P40" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="105">
         <v>55.0</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="104" t="s">
+      <c r="F41" s="105" t="s">
         <v>549</v>
       </c>
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="112" t="s">
         <v>550</v>
       </c>
-      <c r="H41" s="111" t="s">
+      <c r="H41" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="I41" s="111" t="s">
+      <c r="I41" s="112" t="s">
         <v>551</v>
       </c>
-      <c r="J41" s="121" t="s">
+      <c r="J41" s="122" t="s">
         <v>552</v>
       </c>
-      <c r="K41" s="116" t="s">
+      <c r="K41" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="L41" s="104">
+      <c r="L41" s="105">
         <v>1.0</v>
       </c>
-      <c r="M41" s="104" t="s">
+      <c r="M41" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="N41" s="110">
+      <c r="N41" s="111">
         <v>12.7616326</v>
       </c>
-      <c r="O41" s="104" t="s">
+      <c r="O41" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="P41" s="104">
+      <c r="P41" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="105">
         <v>55.0</v>
       </c>
-      <c r="D42" s="120" t="s">
+      <c r="D42" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="104" t="s">
+      <c r="F42" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="G42" s="122" t="s">
+      <c r="G42" s="123" t="s">
         <v>554</v>
       </c>
-      <c r="H42" s="104" t="s">
+      <c r="H42" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="I42" s="104" t="s">
+      <c r="I42" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="J42" s="123" t="s">
+      <c r="J42" s="124" t="s">
         <v>555</v>
       </c>
-      <c r="K42" s="118" t="s">
+      <c r="K42" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="L42" s="104">
+      <c r="L42" s="105">
         <v>1.0</v>
       </c>
-      <c r="M42" s="104" t="s">
+      <c r="M42" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="N42" s="110">
+      <c r="N42" s="111">
         <v>12.7616326</v>
       </c>
-      <c r="O42" s="104" t="s">
+      <c r="O42" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="P42" s="104">
+      <c r="P42" s="105">
         <v>3500.0</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="104">
+      <c r="C43" s="105">
         <v>55.0</v>
       </c>
-      <c r="D43" s="120" t="s">
+      <c r="D43" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="104" t="s">
+      <c r="F43" s="105" t="s">
         <v>559</v>
       </c>
-      <c r="G43" s="124" t="s">
+      <c r="G43" s="125" t="s">
         <v>440</v>
       </c>
-      <c r="H43" s="104" t="s">
+      <c r="H43" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="I43" s="104" t="s">
+      <c r="I43" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="J43" s="125" t="s">
+      <c r="J43" s="126" t="s">
         <v>442</v>
       </c>
-      <c r="K43" s="118" t="s">
+      <c r="K43" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="L43" s="104">
+      <c r="L43" s="105">
         <v>1.0</v>
       </c>
-      <c r="M43" s="104" t="s">
+      <c r="M43" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="N43" s="110">
+      <c r="N43" s="111">
         <v>12.7616326</v>
       </c>
-      <c r="O43" s="104" t="s">
+      <c r="O43" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="P43" s="104">
+      <c r="P43" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="104">
+      <c r="C44" s="105">
         <v>55.0</v>
       </c>
-      <c r="D44" s="120" t="s">
+      <c r="D44" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="105" t="s">
         <v>564</v>
       </c>
-      <c r="G44" s="122" t="s">
+      <c r="G44" s="123" t="s">
         <v>565</v>
       </c>
-      <c r="H44" s="104" t="s">
+      <c r="H44" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="I44" s="104" t="s">
+      <c r="I44" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="J44" s="123" t="s">
+      <c r="J44" s="124" t="s">
         <v>555</v>
       </c>
-      <c r="K44" s="118" t="s">
+      <c r="K44" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="L44" s="104">
+      <c r="L44" s="105">
         <v>1.0</v>
       </c>
-      <c r="M44" s="104" t="s">
+      <c r="M44" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="N44" s="110">
+      <c r="N44" s="111">
         <v>12.7616326</v>
       </c>
-      <c r="O44" s="104" t="s">
+      <c r="O44" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="P44" s="104">
+      <c r="P44" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="104">
+      <c r="C45" s="105">
         <v>55.0</v>
       </c>
-      <c r="D45" s="120" t="s">
+      <c r="D45" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E45" s="104" t="s">
+      <c r="E45" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F45" s="104" t="s">
+      <c r="F45" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="G45" s="104" t="s">
+      <c r="G45" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="H45" s="104" t="s">
+      <c r="H45" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="I45" s="104" t="s">
+      <c r="I45" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="J45" s="126" t="s">
+      <c r="J45" s="127" t="s">
         <v>555</v>
       </c>
-      <c r="K45" s="118" t="s">
+      <c r="K45" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="104">
+      <c r="L45" s="105">
         <v>1.0</v>
       </c>
-      <c r="M45" s="104" t="s">
+      <c r="M45" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="N45" s="110">
+      <c r="N45" s="111">
         <v>12.7616326</v>
       </c>
-      <c r="O45" s="104" t="s">
+      <c r="O45" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="P45" s="104">
+      <c r="P45" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="105">
         <v>55.0</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E46" s="104" t="s">
+      <c r="E46" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="104" t="s">
+      <c r="F46" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="G46" s="124" t="s">
+      <c r="G46" s="125" t="s">
         <v>450</v>
       </c>
-      <c r="H46" s="104" t="s">
+      <c r="H46" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="I46" s="104" t="s">
+      <c r="I46" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="J46" s="125" t="s">
+      <c r="J46" s="126" t="s">
         <v>442</v>
       </c>
-      <c r="K46" s="118" t="s">
+      <c r="K46" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="L46" s="104">
+      <c r="L46" s="105">
         <v>1.0</v>
       </c>
-      <c r="M46" s="104" t="s">
+      <c r="M46" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="N46" s="110">
+      <c r="N46" s="111">
         <v>12.7616326</v>
       </c>
-      <c r="O46" s="104" t="s">
+      <c r="O46" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="P46" s="104">
+      <c r="P46" s="105">
         <v>3000.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="104">
+      <c r="C47" s="105">
         <v>95.0</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="D47" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="104" t="s">
+      <c r="E47" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="F47" s="104" t="s">
+      <c r="F47" s="105" t="s">
         <v>572</v>
       </c>
-      <c r="G47" s="104" t="s">
+      <c r="G47" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="H47" s="104" t="s">
+      <c r="H47" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="I47" s="104" t="s">
+      <c r="I47" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="J47" s="108" t="s">
+      <c r="J47" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K47" s="118" t="s">
+      <c r="K47" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L47" s="104">
+      <c r="L47" s="105">
         <v>1.0</v>
       </c>
-      <c r="M47" s="104" t="s">
+      <c r="M47" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="N47" s="110">
+      <c r="N47" s="111">
         <v>6.08292251</v>
       </c>
-      <c r="O47" s="104">
+      <c r="O47" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P47" s="104">
+      <c r="P47" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="105">
         <v>95.0</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="104" t="s">
+      <c r="E48" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="F48" s="104" t="s">
+      <c r="F48" s="105" t="s">
         <v>577</v>
       </c>
-      <c r="G48" s="104" t="s">
+      <c r="G48" s="105" t="s">
         <v>578</v>
       </c>
-      <c r="H48" s="104" t="s">
+      <c r="H48" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="I48" s="104" t="s">
+      <c r="I48" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="J48" s="108" t="s">
+      <c r="J48" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="K48" s="118" t="s">
+      <c r="K48" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L48" s="104">
+      <c r="L48" s="105">
         <v>1.0</v>
       </c>
-      <c r="M48" s="104" t="s">
+      <c r="M48" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="N48" s="110">
+      <c r="N48" s="111">
         <v>6.08292251</v>
       </c>
-      <c r="O48" s="104">
+      <c r="O48" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P48" s="104">
+      <c r="P48" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="104">
+      <c r="C49" s="105">
         <v>96.0</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="105" t="s">
         <v>580</v>
       </c>
-      <c r="E49" s="104" t="s">
+      <c r="E49" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F49" s="104" t="s">
+      <c r="F49" s="105" t="s">
         <v>581</v>
       </c>
-      <c r="G49" s="104" t="s">
+      <c r="G49" s="105" t="s">
         <v>582</v>
       </c>
-      <c r="H49" s="104" t="s">
+      <c r="H49" s="105" t="s">
         <v>387</v>
       </c>
-      <c r="I49" s="104" t="s">
+      <c r="I49" s="105" t="s">
         <v>412</v>
       </c>
-      <c r="J49" s="108" t="s">
+      <c r="J49" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="K49" s="118" t="s">
+      <c r="K49" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="105">
         <v>1.0</v>
       </c>
-      <c r="M49" s="104" t="s">
+      <c r="M49" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="N49" s="110">
+      <c r="N49" s="111">
         <v>8.99927986</v>
       </c>
-      <c r="O49" s="104">
+      <c r="O49" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P49" s="104">
+      <c r="P49" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="105">
         <v>98.0</v>
       </c>
-      <c r="D50" s="104" t="s">
+      <c r="D50" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="104" t="s">
+      <c r="E50" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F50" s="104" t="s">
+      <c r="F50" s="105" t="s">
         <v>583</v>
       </c>
-      <c r="G50" s="104" t="s">
+      <c r="G50" s="105" t="s">
         <v>584</v>
       </c>
-      <c r="H50" s="104" t="s">
+      <c r="H50" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I50" s="104" t="s">
+      <c r="I50" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="J50" s="127" t="s">
+      <c r="J50" s="128" t="s">
         <v>497</v>
       </c>
-      <c r="K50" s="118" t="s">
+      <c r="K50" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="L50" s="104">
+      <c r="L50" s="105">
         <v>0.0</v>
       </c>
-      <c r="M50" s="104" t="s">
+      <c r="M50" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="N50" s="110">
+      <c r="N50" s="111">
         <v>20.5393281</v>
       </c>
-      <c r="O50" s="104" t="s">
+      <c r="O50" s="105" t="s">
         <v>629</v>
       </c>
-      <c r="P50" s="104">
+      <c r="P50" s="105">
         <v>3500.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="104">
+      <c r="C51" s="105">
         <v>98.0</v>
       </c>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="104" t="s">
+      <c r="E51" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="G51" s="104" t="s">
+      <c r="G51" s="105" t="s">
         <v>587</v>
       </c>
-      <c r="H51" s="104" t="s">
+      <c r="H51" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I51" s="104" t="s">
+      <c r="I51" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="J51" s="108" t="s">
+      <c r="J51" s="109" t="s">
         <v>555</v>
       </c>
-      <c r="K51" s="118" t="s">
+      <c r="K51" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="L51" s="104">
+      <c r="L51" s="105">
         <v>1.0</v>
       </c>
-      <c r="M51" s="104" t="s">
+      <c r="M51" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="N51" s="110">
+      <c r="N51" s="111">
         <v>20.5393281</v>
       </c>
-      <c r="O51" s="104" t="s">
+      <c r="O51" s="105" t="s">
         <v>629</v>
       </c>
-      <c r="P51" s="104">
+      <c r="P51" s="105">
         <v>3500.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="104">
+      <c r="C52" s="105">
         <v>98.0</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="E52" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F52" s="104" t="s">
+      <c r="F52" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="H52" s="104" t="s">
+      <c r="H52" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I52" s="104" t="s">
+      <c r="I52" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="J52" s="108" t="s">
+      <c r="J52" s="109" t="s">
         <v>555</v>
       </c>
-      <c r="K52" s="118" t="s">
+      <c r="K52" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="L52" s="104">
+      <c r="L52" s="105">
         <v>1.0</v>
       </c>
-      <c r="M52" s="104" t="s">
+      <c r="M52" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="N52" s="110">
+      <c r="N52" s="111">
         <v>20.5393281</v>
       </c>
-      <c r="O52" s="104" t="s">
+      <c r="O52" s="105" t="s">
         <v>629</v>
       </c>
-      <c r="P52" s="104">
+      <c r="P52" s="105">
         <v>3500.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="104">
+      <c r="C53" s="105">
         <v>102.0</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F53" s="104" t="s">
+      <c r="F53" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="105" t="s">
         <v>591</v>
       </c>
-      <c r="H53" s="104" t="s">
+      <c r="H53" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="I53" s="104" t="s">
+      <c r="I53" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="J53" s="108" t="s">
+      <c r="J53" s="109" t="s">
         <v>543</v>
       </c>
-      <c r="K53" s="109" t="s">
+      <c r="K53" s="110" t="s">
         <v>543</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="105">
         <v>1.0</v>
       </c>
-      <c r="M53" s="104" t="s">
+      <c r="M53" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="N53" s="110">
+      <c r="N53" s="111">
         <v>7.0320315</v>
       </c>
-      <c r="O53" s="104">
+      <c r="O53" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P53" s="104">
+      <c r="P53" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B54" s="104" t="s">
+      <c r="B54" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="104">
+      <c r="C54" s="105">
         <v>102.0</v>
       </c>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="104" t="s">
+      <c r="E54" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F54" s="104" t="s">
+      <c r="F54" s="105" t="s">
         <v>592</v>
       </c>
-      <c r="G54" s="104" t="s">
+      <c r="G54" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="H54" s="104" t="s">
+      <c r="H54" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="I54" s="104" t="s">
+      <c r="I54" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="J54" s="108" t="s">
+      <c r="J54" s="109" t="s">
         <v>543</v>
       </c>
-      <c r="K54" s="109" t="s">
+      <c r="K54" s="110" t="s">
         <v>543</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="105">
         <v>1.0</v>
       </c>
-      <c r="M54" s="104" t="s">
+      <c r="M54" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="N54" s="110">
+      <c r="N54" s="111">
         <v>7.0320315</v>
       </c>
-      <c r="O54" s="104">
+      <c r="O54" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P54" s="104">
+      <c r="P54" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="104">
+      <c r="C55" s="105">
         <v>102.0</v>
       </c>
-      <c r="D55" s="104" t="s">
+      <c r="D55" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="104" t="s">
+      <c r="E55" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="F55" s="104" t="s">
+      <c r="F55" s="105" t="s">
         <v>594</v>
       </c>
-      <c r="G55" s="104" t="s">
+      <c r="G55" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="H55" s="104" t="s">
+      <c r="H55" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="I55" s="104" t="s">
+      <c r="I55" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="J55" s="108" t="s">
+      <c r="J55" s="109" t="s">
         <v>543</v>
       </c>
-      <c r="K55" s="109" t="s">
+      <c r="K55" s="110" t="s">
         <v>543</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="105">
         <v>1.0</v>
       </c>
-      <c r="M55" s="104" t="s">
+      <c r="M55" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="N55" s="110">
+      <c r="N55" s="111">
         <v>7.0320315</v>
       </c>
-      <c r="O55" s="104">
+      <c r="O55" s="105">
         <v>2000.0</v>
       </c>
-      <c r="P55" s="104">
+      <c r="P55" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="104" t="s">
+      <c r="A56" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="104">
+      <c r="C56" s="105">
         <v>103.0</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="104" t="s">
+      <c r="E56" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="F56" s="104" t="s">
+      <c r="F56" s="105" t="s">
         <v>596</v>
       </c>
-      <c r="G56" s="104" t="s">
+      <c r="G56" s="105" t="s">
         <v>597</v>
       </c>
-      <c r="H56" s="104" t="s">
+      <c r="H56" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I56" s="104" t="s">
+      <c r="I56" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="J56" s="108" t="s">
+      <c r="J56" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K56" s="118" t="s">
+      <c r="K56" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L56" s="104">
+      <c r="L56" s="105">
         <v>0.0</v>
       </c>
-      <c r="M56" s="104" t="s">
+      <c r="M56" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="N56" s="110">
+      <c r="N56" s="111">
         <v>30.7005423</v>
       </c>
-      <c r="O56" s="104">
+      <c r="O56" s="105">
         <v>4000.0</v>
       </c>
-      <c r="P56" s="104">
+      <c r="P56" s="105">
         <v>4000.0</v>
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="104">
+      <c r="C57" s="105">
         <v>103.0</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="104" t="s">
+      <c r="E57" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="F57" s="104" t="s">
+      <c r="F57" s="105" t="s">
         <v>598</v>
       </c>
-      <c r="G57" s="104" t="s">
+      <c r="G57" s="105" t="s">
         <v>599</v>
       </c>
-      <c r="H57" s="104" t="s">
+      <c r="H57" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="104" t="s">
+      <c r="I57" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="J57" s="108" t="s">
+      <c r="J57" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K57" s="118" t="s">
+      <c r="K57" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L57" s="104">
+      <c r="L57" s="105">
         <v>1.0</v>
       </c>
-      <c r="M57" s="104" t="s">
+      <c r="M57" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="N57" s="110">
+      <c r="N57" s="111">
         <v>30.7005423</v>
       </c>
-      <c r="O57" s="104">
+      <c r="O57" s="105">
         <v>4000.0</v>
       </c>
-      <c r="P57" s="104">
+      <c r="P57" s="105">
         <v>4000.0</v>
       </c>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="104">
+      <c r="C58" s="105">
         <v>104.0</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="104" t="s">
+      <c r="E58" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="104" t="s">
+      <c r="F58" s="105" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="104" t="s">
+      <c r="G58" s="105" t="s">
         <v>601</v>
       </c>
-      <c r="H58" s="104" t="s">
+      <c r="H58" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I58" s="104" t="s">
+      <c r="I58" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="J58" s="108" t="s">
+      <c r="J58" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K58" s="118" t="s">
+      <c r="K58" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L58" s="104">
+      <c r="L58" s="105">
         <v>1.0</v>
       </c>
-      <c r="M58" s="104" t="s">
+      <c r="M58" s="105" t="s">
         <v>377</v>
       </c>
-      <c r="N58" s="110">
+      <c r="N58" s="111">
         <v>12.2839223</v>
       </c>
-      <c r="O58" s="104" t="s">
+      <c r="O58" s="105" t="s">
         <v>630</v>
       </c>
-      <c r="P58" s="104">
+      <c r="P58" s="105">
         <v>2250.0</v>
       </c>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="104">
+      <c r="C59" s="105">
         <v>105.0</v>
       </c>
-      <c r="D59" s="104" t="s">
+      <c r="D59" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F59" s="104" t="s">
+      <c r="F59" s="105" t="s">
         <v>602</v>
       </c>
-      <c r="G59" s="104" t="s">
+      <c r="G59" s="105" t="s">
         <v>603</v>
       </c>
-      <c r="H59" s="104" t="s">
+      <c r="H59" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="I59" s="104" t="s">
+      <c r="I59" s="105" t="s">
         <v>604</v>
       </c>
-      <c r="J59" s="108" t="s">
+      <c r="J59" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K59" s="109" t="s">
+      <c r="K59" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L59" s="104">
+      <c r="L59" s="105">
         <v>1.0</v>
       </c>
-      <c r="M59" s="104" t="s">
+      <c r="M59" s="105" t="s">
         <v>605</v>
       </c>
-      <c r="N59" s="110">
+      <c r="N59" s="111">
         <v>12.8090755</v>
       </c>
-      <c r="O59" s="104" t="s">
+      <c r="O59" s="105" t="s">
         <v>631</v>
       </c>
-      <c r="P59" s="104">
+      <c r="P59" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B60" s="104" t="s">
+      <c r="B60" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="104">
+      <c r="C60" s="105">
         <v>105.0</v>
       </c>
-      <c r="D60" s="104" t="s">
+      <c r="D60" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="105" t="s">
         <v>606</v>
       </c>
-      <c r="G60" s="104" t="s">
+      <c r="G60" s="105" t="s">
         <v>607</v>
       </c>
-      <c r="H60" s="104" t="s">
+      <c r="H60" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="I60" s="104" t="s">
+      <c r="I60" s="105" t="s">
         <v>604</v>
       </c>
-      <c r="J60" s="108" t="s">
+      <c r="J60" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K60" s="109" t="s">
+      <c r="K60" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L60" s="104">
+      <c r="L60" s="105">
         <v>0.0</v>
       </c>
-      <c r="M60" s="104" t="s">
+      <c r="M60" s="105" t="s">
         <v>605</v>
       </c>
-      <c r="N60" s="110">
+      <c r="N60" s="111">
         <v>12.8090755</v>
       </c>
-      <c r="O60" s="104" t="s">
+      <c r="O60" s="105" t="s">
         <v>631</v>
       </c>
-      <c r="P60" s="104">
+      <c r="P60" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="104">
+      <c r="C61" s="105">
         <v>105.0</v>
       </c>
-      <c r="D61" s="104" t="s">
+      <c r="D61" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="104" t="s">
+      <c r="E61" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="F61" s="104" t="s">
+      <c r="F61" s="105" t="s">
         <v>608</v>
       </c>
-      <c r="G61" s="104" t="s">
+      <c r="G61" s="105" t="s">
         <v>609</v>
       </c>
-      <c r="H61" s="104" t="s">
+      <c r="H61" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="I61" s="104" t="s">
+      <c r="I61" s="105" t="s">
         <v>604</v>
       </c>
-      <c r="J61" s="108" t="s">
+      <c r="J61" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K61" s="109" t="s">
+      <c r="K61" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="L61" s="104">
+      <c r="L61" s="105">
         <v>0.0</v>
       </c>
-      <c r="M61" s="104" t="s">
+      <c r="M61" s="105" t="s">
         <v>605</v>
       </c>
-      <c r="N61" s="110">
+      <c r="N61" s="111">
         <v>12.8090755</v>
       </c>
-      <c r="O61" s="104" t="s">
+      <c r="O61" s="105" t="s">
         <v>631</v>
       </c>
-      <c r="P61" s="104">
+      <c r="P61" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B62" s="104" t="s">
+      <c r="B62" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="104">
+      <c r="C62" s="105">
         <v>109.0</v>
       </c>
-      <c r="D62" s="104" t="s">
+      <c r="D62" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="104" t="s">
+      <c r="E62" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F62" s="104" t="s">
+      <c r="F62" s="105" t="s">
         <v>610</v>
       </c>
-      <c r="G62" s="104" t="s">
+      <c r="G62" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="H62" s="104" t="s">
+      <c r="H62" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I62" s="104" t="s">
+      <c r="I62" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="J62" s="108" t="s">
+      <c r="J62" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K62" s="118" t="s">
+      <c r="K62" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L62" s="104">
+      <c r="L62" s="105">
         <v>0.0</v>
       </c>
-      <c r="M62" s="104" t="s">
+      <c r="M62" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="N62" s="110">
+      <c r="N62" s="111">
         <v>13.581307</v>
       </c>
-      <c r="O62" s="104" t="s">
+      <c r="O62" s="105" t="s">
         <v>632</v>
       </c>
-      <c r="P62" s="104">
+      <c r="P62" s="105">
         <v>2250.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="104">
+      <c r="C63" s="105">
         <v>109.0</v>
       </c>
-      <c r="D63" s="104" t="s">
+      <c r="D63" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="104" t="s">
+      <c r="E63" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F63" s="104" t="s">
+      <c r="F63" s="105" t="s">
         <v>612</v>
       </c>
-      <c r="G63" s="104" t="s">
+      <c r="G63" s="105" t="s">
         <v>613</v>
       </c>
-      <c r="H63" s="104" t="s">
+      <c r="H63" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I63" s="104" t="s">
+      <c r="I63" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="J63" s="108" t="s">
+      <c r="J63" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K63" s="118" t="s">
+      <c r="K63" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L63" s="104">
+      <c r="L63" s="105">
         <v>1.0</v>
       </c>
-      <c r="M63" s="104" t="s">
+      <c r="M63" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="N63" s="110">
+      <c r="N63" s="111">
         <v>13.581307</v>
       </c>
-      <c r="O63" s="104" t="s">
+      <c r="O63" s="105" t="s">
         <v>632</v>
       </c>
-      <c r="P63" s="104">
+      <c r="P63" s="105">
         <v>2500.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B64" s="104" t="s">
+      <c r="B64" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="104">
+      <c r="C64" s="105">
         <v>109.0</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="D64" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="104" t="s">
+      <c r="F64" s="105" t="s">
         <v>617</v>
       </c>
-      <c r="G64" s="104" t="s">
+      <c r="G64" s="105" t="s">
         <v>618</v>
       </c>
-      <c r="H64" s="104" t="s">
+      <c r="H64" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I64" s="104" t="s">
+      <c r="I64" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="J64" s="108" t="s">
+      <c r="J64" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K64" s="118" t="s">
+      <c r="K64" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L64" s="104">
+      <c r="L64" s="105">
         <v>0.0</v>
       </c>
-      <c r="M64" s="104" t="s">
+      <c r="M64" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="N64" s="110">
+      <c r="N64" s="111">
         <v>13.581307</v>
       </c>
-      <c r="O64" s="104" t="s">
+      <c r="O64" s="105" t="s">
         <v>632</v>
       </c>
-      <c r="P64" s="104">
+      <c r="P64" s="105">
         <v>2250.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="104">
+      <c r="C65" s="105">
         <v>109.0</v>
       </c>
-      <c r="D65" s="104" t="s">
+      <c r="D65" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="104" t="s">
+      <c r="E65" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F65" s="104" t="s">
+      <c r="F65" s="105" t="s">
         <v>619</v>
       </c>
-      <c r="G65" s="104" t="s">
+      <c r="G65" s="105" t="s">
         <v>620</v>
       </c>
-      <c r="H65" s="104" t="s">
+      <c r="H65" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I65" s="104" t="s">
+      <c r="I65" s="105" t="s">
         <v>390</v>
       </c>
-      <c r="J65" s="108" t="s">
+      <c r="J65" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K65" s="118" t="s">
+      <c r="K65" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L65" s="104">
+      <c r="L65" s="105">
         <v>1.0</v>
       </c>
-      <c r="M65" s="104" t="s">
+      <c r="M65" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="N65" s="110">
+      <c r="N65" s="111">
         <v>13.581307</v>
       </c>
-      <c r="O65" s="104" t="s">
+      <c r="O65" s="105" t="s">
         <v>632</v>
       </c>
-      <c r="P65" s="104">
+      <c r="P65" s="105">
         <v>2000.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B66" s="104" t="s">
+      <c r="B66" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="104">
+      <c r="C66" s="105">
         <v>111.0</v>
       </c>
-      <c r="D66" s="104" t="s">
+      <c r="D66" s="105" t="s">
         <v>622</v>
       </c>
-      <c r="E66" s="104" t="s">
+      <c r="E66" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F66" s="104" t="s">
+      <c r="F66" s="105" t="s">
         <v>623</v>
       </c>
-      <c r="G66" s="104" t="s">
+      <c r="G66" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="H66" s="104" t="s">
+      <c r="H66" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I66" s="104" t="s">
+      <c r="I66" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="J66" s="108" t="s">
+      <c r="J66" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K66" s="118" t="s">
+      <c r="K66" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L66" s="104">
+      <c r="L66" s="105">
         <v>1.0</v>
       </c>
-      <c r="M66" s="104" t="s">
+      <c r="M66" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="N66" s="110">
+      <c r="N66" s="111">
         <v>18.4645998</v>
       </c>
-      <c r="O66" s="104" t="s">
+      <c r="O66" s="105" t="s">
         <v>633</v>
       </c>
-      <c r="P66" s="104">
+      <c r="P66" s="105">
         <v>2750.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="104">
+      <c r="C67" s="105">
         <v>111.0</v>
       </c>
-      <c r="D67" s="104" t="s">
+      <c r="D67" s="105" t="s">
         <v>622</v>
       </c>
-      <c r="E67" s="104" t="s">
+      <c r="E67" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F67" s="104" t="s">
+      <c r="F67" s="105" t="s">
         <v>624</v>
       </c>
-      <c r="G67" s="104" t="s">
+      <c r="G67" s="105" t="s">
         <v>472</v>
       </c>
-      <c r="H67" s="104" t="s">
+      <c r="H67" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I67" s="104" t="s">
+      <c r="I67" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="J67" s="108" t="s">
+      <c r="J67" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K67" s="118" t="s">
+      <c r="K67" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L67" s="104">
+      <c r="L67" s="105">
         <v>0.0</v>
       </c>
-      <c r="M67" s="104" t="s">
+      <c r="M67" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="N67" s="110">
+      <c r="N67" s="111">
         <v>18.4645998</v>
       </c>
-      <c r="O67" s="104" t="s">
+      <c r="O67" s="105" t="s">
         <v>633</v>
       </c>
-      <c r="P67" s="104">
+      <c r="P67" s="105">
         <v>2750.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="104">
+      <c r="C68" s="105">
         <v>111.0</v>
       </c>
-      <c r="D68" s="104" t="s">
+      <c r="D68" s="105" t="s">
         <v>622</v>
       </c>
-      <c r="E68" s="104" t="s">
+      <c r="E68" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="F68" s="104" t="s">
+      <c r="F68" s="105" t="s">
         <v>626</v>
       </c>
-      <c r="G68" s="104" t="s">
+      <c r="G68" s="105" t="s">
         <v>620</v>
       </c>
-      <c r="H68" s="104" t="s">
+      <c r="H68" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="I68" s="104" t="s">
+      <c r="I68" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="J68" s="108" t="s">
+      <c r="J68" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="K68" s="118" t="s">
+      <c r="K68" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="L68" s="104">
+      <c r="L68" s="105">
         <v>0.0</v>
       </c>
-      <c r="M68" s="104" t="s">
+      <c r="M68" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="N68" s="110">
+      <c r="N68" s="111">
         <v>18.4645998</v>
       </c>
-      <c r="O68" s="104" t="s">
+      <c r="O68" s="105" t="s">
         <v>633</v>
       </c>
-      <c r="P68" s="104">
+      <c r="P68" s="105">
         <v>2750.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="J69" s="108"/>
-      <c r="K69" s="109"/>
+      <c r="J69" s="109"/>
+      <c r="K69" s="110"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="J70" s="108"/>
-      <c r="K70" s="109"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="110"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="J71" s="108"/>
-      <c r="K71" s="109"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="110"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="J72" s="108"/>
-      <c r="K72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="110"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="J73" s="108"/>
-      <c r="K73" s="109"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="110"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="J74" s="108"/>
-      <c r="K74" s="109"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="110"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="J75" s="108"/>
-      <c r="K75" s="109"/>
+      <c r="J75" s="109"/>
+      <c r="K75" s="110"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="J76" s="108"/>
-      <c r="K76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="110"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="J77" s="108"/>
-      <c r="K77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="110"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="J78" s="108"/>
-      <c r="K78" s="109"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="110"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="J79" s="108"/>
-      <c r="K79" s="109"/>
+      <c r="J79" s="109"/>
+      <c r="K79" s="110"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="J80" s="108"/>
-      <c r="K80" s="109"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="110"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="J81" s="108"/>
-      <c r="K81" s="109"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="110"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="J82" s="108"/>
-      <c r="K82" s="109"/>
+      <c r="J82" s="109"/>
+      <c r="K82" s="110"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="J83" s="108"/>
-      <c r="K83" s="109"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="110"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="J84" s="108"/>
-      <c r="K84" s="109"/>
+      <c r="J84" s="109"/>
+      <c r="K84" s="110"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="J85" s="108"/>
-      <c r="K85" s="109"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="110"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="J86" s="108"/>
-      <c r="K86" s="109"/>
+      <c r="J86" s="109"/>
+      <c r="K86" s="110"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="J87" s="108"/>
-      <c r="K87" s="109"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="110"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="J88" s="108"/>
-      <c r="K88" s="109"/>
+      <c r="J88" s="109"/>
+      <c r="K88" s="110"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="J89" s="108"/>
-      <c r="K89" s="109"/>
+      <c r="J89" s="109"/>
+      <c r="K89" s="110"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="J90" s="108"/>
-      <c r="K90" s="109"/>
+      <c r="J90" s="109"/>
+      <c r="K90" s="110"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="J91" s="108"/>
-      <c r="K91" s="109"/>
+      <c r="J91" s="109"/>
+      <c r="K91" s="110"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="J92" s="108"/>
-      <c r="K92" s="109"/>
+      <c r="J92" s="109"/>
+      <c r="K92" s="110"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="J93" s="108"/>
-      <c r="K93" s="109"/>
+      <c r="J93" s="109"/>
+      <c r="K93" s="110"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="J94" s="108"/>
-      <c r="K94" s="109"/>
+      <c r="J94" s="109"/>
+      <c r="K94" s="110"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="J95" s="108"/>
-      <c r="K95" s="109"/>
+      <c r="J95" s="109"/>
+      <c r="K95" s="110"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="J96" s="108"/>
-      <c r="K96" s="109"/>
+      <c r="J96" s="109"/>
+      <c r="K96" s="110"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="J97" s="108"/>
-      <c r="K97" s="109"/>
+      <c r="J97" s="109"/>
+      <c r="K97" s="110"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="J98" s="108"/>
-      <c r="K98" s="109"/>
+      <c r="J98" s="109"/>
+      <c r="K98" s="110"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="J99" s="108"/>
-      <c r="K99" s="109"/>
+      <c r="J99" s="109"/>
+      <c r="K99" s="110"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="J100" s="108"/>
-      <c r="K100" s="109"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="110"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="J101" s="108"/>
-      <c r="K101" s="109"/>
+      <c r="J101" s="109"/>
+      <c r="K101" s="110"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="J102" s="108"/>
-      <c r="K102" s="109"/>
+      <c r="J102" s="109"/>
+      <c r="K102" s="110"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="J103" s="108"/>
-      <c r="K103" s="109"/>
+      <c r="J103" s="109"/>
+      <c r="K103" s="110"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="J104" s="108"/>
-      <c r="K104" s="109"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="110"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="J105" s="108"/>
-      <c r="K105" s="109"/>
+      <c r="J105" s="109"/>
+      <c r="K105" s="110"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="J106" s="108"/>
-      <c r="K106" s="109"/>
+      <c r="J106" s="109"/>
+      <c r="K106" s="110"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="J107" s="108"/>
-      <c r="K107" s="109"/>
+      <c r="J107" s="109"/>
+      <c r="K107" s="110"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="J108" s="108"/>
-      <c r="K108" s="109"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="110"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="J109" s="108"/>
-      <c r="K109" s="109"/>
+      <c r="J109" s="109"/>
+      <c r="K109" s="110"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="J110" s="108"/>
-      <c r="K110" s="109"/>
+      <c r="J110" s="109"/>
+      <c r="K110" s="110"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="J111" s="108"/>
-      <c r="K111" s="109"/>
+      <c r="J111" s="109"/>
+      <c r="K111" s="110"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="J112" s="108"/>
-      <c r="K112" s="109"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="110"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="J113" s="108"/>
-      <c r="K113" s="109"/>
+      <c r="J113" s="109"/>
+      <c r="K113" s="110"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="J114" s="108"/>
-      <c r="K114" s="109"/>
+      <c r="J114" s="109"/>
+      <c r="K114" s="110"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="J115" s="108"/>
-      <c r="K115" s="109"/>
+      <c r="J115" s="109"/>
+      <c r="K115" s="110"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="J116" s="108"/>
-      <c r="K116" s="109"/>
+      <c r="J116" s="109"/>
+      <c r="K116" s="110"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="J117" s="108"/>
-      <c r="K117" s="109"/>
+      <c r="J117" s="109"/>
+      <c r="K117" s="110"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="J118" s="108"/>
-      <c r="K118" s="109"/>
+      <c r="J118" s="109"/>
+      <c r="K118" s="110"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="J119" s="108"/>
-      <c r="K119" s="109"/>
+      <c r="J119" s="109"/>
+      <c r="K119" s="110"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="J120" s="108"/>
-      <c r="K120" s="109"/>
+      <c r="J120" s="109"/>
+      <c r="K120" s="110"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="J121" s="108"/>
-      <c r="K121" s="109"/>
+      <c r="J121" s="109"/>
+      <c r="K121" s="110"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="J122" s="108"/>
-      <c r="K122" s="109"/>
+      <c r="J122" s="109"/>
+      <c r="K122" s="110"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="J123" s="108"/>
-      <c r="K123" s="109"/>
+      <c r="J123" s="109"/>
+      <c r="K123" s="110"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="J124" s="108"/>
-      <c r="K124" s="109"/>
+      <c r="J124" s="109"/>
+      <c r="K124" s="110"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="J125" s="108"/>
-      <c r="K125" s="109"/>
+      <c r="J125" s="109"/>
+      <c r="K125" s="110"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="J126" s="108"/>
-      <c r="K126" s="109"/>
+      <c r="J126" s="109"/>
+      <c r="K126" s="110"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="J127" s="108"/>
-      <c r="K127" s="109"/>
+      <c r="J127" s="109"/>
+      <c r="K127" s="110"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="J128" s="108"/>
-      <c r="K128" s="109"/>
+      <c r="J128" s="109"/>
+      <c r="K128" s="110"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="J129" s="108"/>
-      <c r="K129" s="109"/>
+      <c r="J129" s="109"/>
+      <c r="K129" s="110"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="J130" s="108"/>
-      <c r="K130" s="109"/>
+      <c r="J130" s="109"/>
+      <c r="K130" s="110"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="J131" s="108"/>
-      <c r="K131" s="109"/>
+      <c r="J131" s="109"/>
+      <c r="K131" s="110"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="J132" s="108"/>
-      <c r="K132" s="109"/>
+      <c r="J132" s="109"/>
+      <c r="K132" s="110"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="J133" s="108"/>
-      <c r="K133" s="109"/>
+      <c r="J133" s="109"/>
+      <c r="K133" s="110"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="J134" s="108"/>
-      <c r="K134" s="109"/>
+      <c r="J134" s="109"/>
+      <c r="K134" s="110"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="J135" s="108"/>
-      <c r="K135" s="109"/>
+      <c r="J135" s="109"/>
+      <c r="K135" s="110"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="J136" s="108"/>
-      <c r="K136" s="109"/>
+      <c r="J136" s="109"/>
+      <c r="K136" s="110"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="J137" s="108"/>
-      <c r="K137" s="109"/>
+      <c r="J137" s="109"/>
+      <c r="K137" s="110"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="J138" s="108"/>
-      <c r="K138" s="109"/>
+      <c r="J138" s="109"/>
+      <c r="K138" s="110"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="J139" s="108"/>
-      <c r="K139" s="109"/>
+      <c r="J139" s="109"/>
+      <c r="K139" s="110"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="J140" s="108"/>
-      <c r="K140" s="109"/>
+      <c r="J140" s="109"/>
+      <c r="K140" s="110"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="J141" s="108"/>
-      <c r="K141" s="109"/>
+      <c r="J141" s="109"/>
+      <c r="K141" s="110"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="J142" s="108"/>
-      <c r="K142" s="109"/>
+      <c r="J142" s="109"/>
+      <c r="K142" s="110"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="J143" s="108"/>
-      <c r="K143" s="109"/>
+      <c r="J143" s="109"/>
+      <c r="K143" s="110"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="J144" s="108"/>
-      <c r="K144" s="109"/>
+      <c r="J144" s="109"/>
+      <c r="K144" s="110"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="J145" s="108"/>
-      <c r="K145" s="109"/>
+      <c r="J145" s="109"/>
+      <c r="K145" s="110"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="J146" s="108"/>
-      <c r="K146" s="109"/>
+      <c r="J146" s="109"/>
+      <c r="K146" s="110"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="J147" s="108"/>
-      <c r="K147" s="109"/>
+      <c r="J147" s="109"/>
+      <c r="K147" s="110"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="J148" s="108"/>
-      <c r="K148" s="109"/>
+      <c r="J148" s="109"/>
+      <c r="K148" s="110"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="J149" s="108"/>
-      <c r="K149" s="109"/>
+      <c r="J149" s="109"/>
+      <c r="K149" s="110"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="J150" s="108"/>
-      <c r="K150" s="109"/>
+      <c r="J150" s="109"/>
+      <c r="K150" s="110"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="J151" s="108"/>
-      <c r="K151" s="109"/>
+      <c r="J151" s="109"/>
+      <c r="K151" s="110"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="J152" s="108"/>
-      <c r="K152" s="109"/>
+      <c r="J152" s="109"/>
+      <c r="K152" s="110"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="J153" s="108"/>
-      <c r="K153" s="109"/>
+      <c r="J153" s="109"/>
+      <c r="K153" s="110"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="J154" s="108"/>
-      <c r="K154" s="109"/>
+      <c r="J154" s="109"/>
+      <c r="K154" s="110"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="J155" s="108"/>
-      <c r="K155" s="109"/>
+      <c r="J155" s="109"/>
+      <c r="K155" s="110"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="J156" s="108"/>
-      <c r="K156" s="109"/>
+      <c r="J156" s="109"/>
+      <c r="K156" s="110"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="J157" s="108"/>
-      <c r="K157" s="109"/>
+      <c r="J157" s="109"/>
+      <c r="K157" s="110"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="J158" s="108"/>
-      <c r="K158" s="109"/>
+      <c r="J158" s="109"/>
+      <c r="K158" s="110"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="J159" s="108"/>
-      <c r="K159" s="109"/>
+      <c r="J159" s="109"/>
+      <c r="K159" s="110"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="J160" s="108"/>
-      <c r="K160" s="109"/>
+      <c r="J160" s="109"/>
+      <c r="K160" s="110"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="J161" s="108"/>
-      <c r="K161" s="109"/>
+      <c r="J161" s="109"/>
+      <c r="K161" s="110"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="J162" s="108"/>
-      <c r="K162" s="109"/>
+      <c r="J162" s="109"/>
+      <c r="K162" s="110"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="J163" s="108"/>
-      <c r="K163" s="109"/>
+      <c r="J163" s="109"/>
+      <c r="K163" s="110"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="J164" s="108"/>
-      <c r="K164" s="109"/>
+      <c r="J164" s="109"/>
+      <c r="K164" s="110"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="J165" s="108"/>
-      <c r="K165" s="109"/>
+      <c r="J165" s="109"/>
+      <c r="K165" s="110"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="J166" s="108"/>
-      <c r="K166" s="109"/>
+      <c r="J166" s="109"/>
+      <c r="K166" s="110"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="J167" s="108"/>
-      <c r="K167" s="109"/>
+      <c r="J167" s="109"/>
+      <c r="K167" s="110"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="J168" s="108"/>
-      <c r="K168" s="109"/>
+      <c r="J168" s="109"/>
+      <c r="K168" s="110"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="J169" s="108"/>
-      <c r="K169" s="109"/>
+      <c r="J169" s="109"/>
+      <c r="K169" s="110"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="J170" s="108"/>
-      <c r="K170" s="109"/>
+      <c r="J170" s="109"/>
+      <c r="K170" s="110"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="J171" s="108"/>
-      <c r="K171" s="109"/>
+      <c r="J171" s="109"/>
+      <c r="K171" s="110"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="J172" s="108"/>
-      <c r="K172" s="109"/>
+      <c r="J172" s="109"/>
+      <c r="K172" s="110"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="J173" s="108"/>
-      <c r="K173" s="109"/>
+      <c r="J173" s="109"/>
+      <c r="K173" s="110"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="J174" s="108"/>
-      <c r="K174" s="109"/>
+      <c r="J174" s="109"/>
+      <c r="K174" s="110"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="J175" s="108"/>
-      <c r="K175" s="109"/>
+      <c r="J175" s="109"/>
+      <c r="K175" s="110"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="J176" s="108"/>
-      <c r="K176" s="109"/>
+      <c r="J176" s="109"/>
+      <c r="K176" s="110"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="J177" s="108"/>
-      <c r="K177" s="109"/>
+      <c r="J177" s="109"/>
+      <c r="K177" s="110"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="J178" s="108"/>
-      <c r="K178" s="109"/>
+      <c r="J178" s="109"/>
+      <c r="K178" s="110"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="J179" s="108"/>
-      <c r="K179" s="109"/>
+      <c r="J179" s="109"/>
+      <c r="K179" s="110"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="J180" s="108"/>
-      <c r="K180" s="109"/>
+      <c r="J180" s="109"/>
+      <c r="K180" s="110"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="J181" s="108"/>
-      <c r="K181" s="109"/>
+      <c r="J181" s="109"/>
+      <c r="K181" s="110"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="J182" s="108"/>
-      <c r="K182" s="109"/>
+      <c r="J182" s="109"/>
+      <c r="K182" s="110"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="J183" s="108"/>
-      <c r="K183" s="109"/>
+      <c r="J183" s="109"/>
+      <c r="K183" s="110"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="J184" s="108"/>
-      <c r="K184" s="109"/>
+      <c r="J184" s="109"/>
+      <c r="K184" s="110"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="J185" s="108"/>
-      <c r="K185" s="109"/>
+      <c r="J185" s="109"/>
+      <c r="K185" s="110"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="J186" s="108"/>
-      <c r="K186" s="109"/>
+      <c r="J186" s="109"/>
+      <c r="K186" s="110"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="J187" s="108"/>
-      <c r="K187" s="109"/>
+      <c r="J187" s="109"/>
+      <c r="K187" s="110"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="J188" s="108"/>
-      <c r="K188" s="109"/>
+      <c r="J188" s="109"/>
+      <c r="K188" s="110"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="J189" s="108"/>
-      <c r="K189" s="109"/>
+      <c r="J189" s="109"/>
+      <c r="K189" s="110"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="J190" s="108"/>
-      <c r="K190" s="109"/>
+      <c r="J190" s="109"/>
+      <c r="K190" s="110"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="J191" s="108"/>
-      <c r="K191" s="109"/>
+      <c r="J191" s="109"/>
+      <c r="K191" s="110"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="J192" s="108"/>
-      <c r="K192" s="109"/>
+      <c r="J192" s="109"/>
+      <c r="K192" s="110"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="J193" s="108"/>
-      <c r="K193" s="109"/>
+      <c r="J193" s="109"/>
+      <c r="K193" s="110"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="J194" s="108"/>
-      <c r="K194" s="109"/>
+      <c r="J194" s="109"/>
+      <c r="K194" s="110"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="J195" s="108"/>
-      <c r="K195" s="109"/>
+      <c r="J195" s="109"/>
+      <c r="K195" s="110"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="J196" s="108"/>
-      <c r="K196" s="109"/>
+      <c r="J196" s="109"/>
+      <c r="K196" s="110"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="J197" s="108"/>
-      <c r="K197" s="109"/>
+      <c r="J197" s="109"/>
+      <c r="K197" s="110"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="J198" s="108"/>
-      <c r="K198" s="109"/>
+      <c r="J198" s="109"/>
+      <c r="K198" s="110"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="J199" s="108"/>
-      <c r="K199" s="109"/>
+      <c r="J199" s="109"/>
+      <c r="K199" s="110"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="J200" s="108"/>
-      <c r="K200" s="109"/>
+      <c r="J200" s="109"/>
+      <c r="K200" s="110"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="J201" s="108"/>
-      <c r="K201" s="109"/>
+      <c r="J201" s="109"/>
+      <c r="K201" s="110"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="J202" s="108"/>
-      <c r="K202" s="109"/>
+      <c r="J202" s="109"/>
+      <c r="K202" s="110"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="J203" s="108"/>
-      <c r="K203" s="109"/>
+      <c r="J203" s="109"/>
+      <c r="K203" s="110"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="J204" s="108"/>
-      <c r="K204" s="109"/>
+      <c r="J204" s="109"/>
+      <c r="K204" s="110"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="J205" s="108"/>
-      <c r="K205" s="109"/>
+      <c r="J205" s="109"/>
+      <c r="K205" s="110"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="J206" s="108"/>
-      <c r="K206" s="109"/>
+      <c r="J206" s="109"/>
+      <c r="K206" s="110"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="J207" s="108"/>
-      <c r="K207" s="109"/>
+      <c r="J207" s="109"/>
+      <c r="K207" s="110"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="J208" s="108"/>
-      <c r="K208" s="109"/>
+      <c r="J208" s="109"/>
+      <c r="K208" s="110"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="J209" s="108"/>
-      <c r="K209" s="109"/>
+      <c r="J209" s="109"/>
+      <c r="K209" s="110"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="J210" s="108"/>
-      <c r="K210" s="109"/>
+      <c r="J210" s="109"/>
+      <c r="K210" s="110"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="J211" s="108"/>
-      <c r="K211" s="109"/>
+      <c r="J211" s="109"/>
+      <c r="K211" s="110"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="J212" s="108"/>
-      <c r="K212" s="109"/>
+      <c r="J212" s="109"/>
+      <c r="K212" s="110"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="J213" s="108"/>
-      <c r="K213" s="109"/>
+      <c r="J213" s="109"/>
+      <c r="K213" s="110"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="J214" s="108"/>
-      <c r="K214" s="109"/>
+      <c r="J214" s="109"/>
+      <c r="K214" s="110"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="J215" s="108"/>
-      <c r="K215" s="109"/>
+      <c r="J215" s="109"/>
+      <c r="K215" s="110"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="J216" s="108"/>
-      <c r="K216" s="109"/>
+      <c r="J216" s="109"/>
+      <c r="K216" s="110"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="J217" s="108"/>
-      <c r="K217" s="109"/>
+      <c r="J217" s="109"/>
+      <c r="K217" s="110"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="J218" s="108"/>
-      <c r="K218" s="109"/>
+      <c r="J218" s="109"/>
+      <c r="K218" s="110"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="J219" s="108"/>
-      <c r="K219" s="109"/>
+      <c r="J219" s="109"/>
+      <c r="K219" s="110"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="J220" s="108"/>
-      <c r="K220" s="109"/>
+      <c r="J220" s="109"/>
+      <c r="K220" s="110"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="J221" s="108"/>
-      <c r="K221" s="109"/>
+      <c r="J221" s="109"/>
+      <c r="K221" s="110"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="J222" s="108"/>
-      <c r="K222" s="109"/>
+      <c r="J222" s="109"/>
+      <c r="K222" s="110"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="J223" s="108"/>
-      <c r="K223" s="109"/>
+      <c r="J223" s="109"/>
+      <c r="K223" s="110"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="J224" s="108"/>
-      <c r="K224" s="109"/>
+      <c r="J224" s="109"/>
+      <c r="K224" s="110"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="J225" s="108"/>
-      <c r="K225" s="109"/>
+      <c r="J225" s="109"/>
+      <c r="K225" s="110"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="J226" s="108"/>
-      <c r="K226" s="109"/>
+      <c r="J226" s="109"/>
+      <c r="K226" s="110"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="J227" s="108"/>
-      <c r="K227" s="109"/>
+      <c r="J227" s="109"/>
+      <c r="K227" s="110"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="J228" s="108"/>
-      <c r="K228" s="109"/>
+      <c r="J228" s="109"/>
+      <c r="K228" s="110"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="J229" s="108"/>
-      <c r="K229" s="109"/>
+      <c r="J229" s="109"/>
+      <c r="K229" s="110"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="J230" s="108"/>
-      <c r="K230" s="109"/>
+      <c r="J230" s="109"/>
+      <c r="K230" s="110"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="J231" s="108"/>
-      <c r="K231" s="109"/>
+      <c r="J231" s="109"/>
+      <c r="K231" s="110"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="J232" s="108"/>
-      <c r="K232" s="109"/>
+      <c r="J232" s="109"/>
+      <c r="K232" s="110"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="J233" s="108"/>
-      <c r="K233" s="109"/>
+      <c r="J233" s="109"/>
+      <c r="K233" s="110"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="J234" s="108"/>
-      <c r="K234" s="109"/>
+      <c r="J234" s="109"/>
+      <c r="K234" s="110"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="J235" s="108"/>
-      <c r="K235" s="109"/>
+      <c r="J235" s="109"/>
+      <c r="K235" s="110"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="J236" s="108"/>
-      <c r="K236" s="109"/>
+      <c r="J236" s="109"/>
+      <c r="K236" s="110"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="J237" s="108"/>
-      <c r="K237" s="109"/>
+      <c r="J237" s="109"/>
+      <c r="K237" s="110"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="J238" s="108"/>
-      <c r="K238" s="109"/>
+      <c r="J238" s="109"/>
+      <c r="K238" s="110"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="J239" s="108"/>
-      <c r="K239" s="109"/>
+      <c r="J239" s="109"/>
+      <c r="K239" s="110"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="J240" s="108"/>
-      <c r="K240" s="109"/>
+      <c r="J240" s="109"/>
+      <c r="K240" s="110"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="J241" s="108"/>
-      <c r="K241" s="109"/>
+      <c r="J241" s="109"/>
+      <c r="K241" s="110"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="J242" s="108"/>
-      <c r="K242" s="109"/>
+      <c r="J242" s="109"/>
+      <c r="K242" s="110"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="J243" s="108"/>
-      <c r="K243" s="109"/>
+      <c r="J243" s="109"/>
+      <c r="K243" s="110"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="J244" s="108"/>
-      <c r="K244" s="109"/>
+      <c r="J244" s="109"/>
+      <c r="K244" s="110"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="J245" s="108"/>
-      <c r="K245" s="109"/>
+      <c r="J245" s="109"/>
+      <c r="K245" s="110"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="J246" s="108"/>
-      <c r="K246" s="109"/>
+      <c r="J246" s="109"/>
+      <c r="K246" s="110"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="J247" s="108"/>
-      <c r="K247" s="109"/>
+      <c r="J247" s="109"/>
+      <c r="K247" s="110"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="J248" s="108"/>
-      <c r="K248" s="109"/>
+      <c r="J248" s="109"/>
+      <c r="K248" s="110"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="J249" s="108"/>
-      <c r="K249" s="109"/>
+      <c r="J249" s="109"/>
+      <c r="K249" s="110"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="J250" s="108"/>
-      <c r="K250" s="109"/>
+      <c r="J250" s="109"/>
+      <c r="K250" s="110"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="J251" s="108"/>
-      <c r="K251" s="109"/>
+      <c r="J251" s="109"/>
+      <c r="K251" s="110"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="J252" s="108"/>
-      <c r="K252" s="109"/>
+      <c r="J252" s="109"/>
+      <c r="K252" s="110"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="J253" s="108"/>
-      <c r="K253" s="109"/>
+      <c r="J253" s="109"/>
+      <c r="K253" s="110"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="J254" s="108"/>
-      <c r="K254" s="109"/>
+      <c r="J254" s="109"/>
+      <c r="K254" s="110"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="J255" s="108"/>
-      <c r="K255" s="109"/>
+      <c r="J255" s="109"/>
+      <c r="K255" s="110"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="J256" s="108"/>
-      <c r="K256" s="109"/>
+      <c r="J256" s="109"/>
+      <c r="K256" s="110"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="J257" s="108"/>
-      <c r="K257" s="109"/>
+      <c r="J257" s="109"/>
+      <c r="K257" s="110"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="J258" s="108"/>
-      <c r="K258" s="109"/>
+      <c r="J258" s="109"/>
+      <c r="K258" s="110"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="J259" s="108"/>
-      <c r="K259" s="109"/>
+      <c r="J259" s="109"/>
+      <c r="K259" s="110"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="J260" s="108"/>
-      <c r="K260" s="109"/>
+      <c r="J260" s="109"/>
+      <c r="K260" s="110"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="J261" s="108"/>
-      <c r="K261" s="109"/>
+      <c r="J261" s="109"/>
+      <c r="K261" s="110"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="J262" s="108"/>
-      <c r="K262" s="109"/>
+      <c r="J262" s="109"/>
+      <c r="K262" s="110"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="J263" s="108"/>
-      <c r="K263" s="109"/>
+      <c r="J263" s="109"/>
+      <c r="K263" s="110"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="J264" s="108"/>
-      <c r="K264" s="109"/>
+      <c r="J264" s="109"/>
+      <c r="K264" s="110"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="J265" s="108"/>
-      <c r="K265" s="109"/>
+      <c r="J265" s="109"/>
+      <c r="K265" s="110"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="J266" s="108"/>
-      <c r="K266" s="109"/>
+      <c r="J266" s="109"/>
+      <c r="K266" s="110"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="J267" s="108"/>
-      <c r="K267" s="109"/>
+      <c r="J267" s="109"/>
+      <c r="K267" s="110"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="J268" s="108"/>
-      <c r="K268" s="109"/>
+      <c r="J268" s="109"/>
+      <c r="K268" s="110"/>
     </row>
     <row r="269" ht="15.75" customHeight="1"/>
     <row r="270" ht="15.75" customHeight="1"/>
